--- a/data/scenario_data/V2G_ratio.xlsx
+++ b/data/scenario_data/V2G_ratio.xlsx
@@ -28,6 +28,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>No V2G</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>V2G mandate</t>
-  </si>
-  <si>
-    <t>No V2G</t>
   </si>
   <si>
     <t>Early</t>
@@ -2164,7 +2164,7 @@
         <v>1950</v>
       </c>
       <c r="E103">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780098895008e-05</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2181,7 +2181,7 @@
         <v>1951</v>
       </c>
       <c r="E104">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780127437505e-05</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2198,7 +2198,7 @@
         <v>1952</v>
       </c>
       <c r="E105">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780162311494e-05</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2215,7 +2215,7 @@
         <v>1953</v>
       </c>
       <c r="E106">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780204921468e-05</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2232,7 +2232,7 @@
         <v>1954</v>
       </c>
       <c r="E107">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780256983477e-05</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2249,7 +2249,7 @@
         <v>1955</v>
       </c>
       <c r="E108">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780320594236e-05</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2266,7 +2266,7 @@
         <v>1956</v>
       </c>
       <c r="E109">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780398315564e-05</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2283,7 +2283,7 @@
         <v>1957</v>
       </c>
       <c r="E110">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780493277565e-05</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2300,7 +2300,7 @@
         <v>1958</v>
       </c>
       <c r="E111">
-        <v>3.334080997000006e-09</v>
+        <v>4.79378060930468e-05</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2317,7 +2317,7 @@
         <v>1959</v>
       </c>
       <c r="E112">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780751069711e-05</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2334,7 +2334,7 @@
         <v>1960</v>
       </c>
       <c r="E113">
-        <v>3.334080997000006e-09</v>
+        <v>4.793780924282015e-05</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2351,7 +2351,7 @@
         <v>1961</v>
       </c>
       <c r="E114">
-        <v>3.334080997000006e-09</v>
+        <v>4.793781135917434e-05</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2368,7 +2368,7 @@
         <v>1962</v>
       </c>
       <c r="E115">
-        <v>3.334080997000006e-09</v>
+        <v>4.793781394499232e-05</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2385,7 +2385,7 @@
         <v>1963</v>
       </c>
       <c r="E116">
-        <v>3.334080997000006e-09</v>
+        <v>4.793781710441358e-05</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2402,7 +2402,7 @@
         <v>1964</v>
       </c>
       <c r="E117">
-        <v>3.334080997000006e-09</v>
+        <v>4.793782096467845e-05</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2419,7 +2419,7 @@
         <v>1965</v>
       </c>
       <c r="E118">
-        <v>3.334080997000006e-09</v>
+        <v>4.793782568125246e-05</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2436,7 +2436,7 @@
         <v>1966</v>
       </c>
       <c r="E119">
-        <v>3.334080997000006e-09</v>
+        <v>4.793783144408732e-05</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2453,7 +2453,7 @@
         <v>1967</v>
       </c>
       <c r="E120">
-        <v>3.334080997000006e-09</v>
+        <v>4.793783848527089e-05</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2470,7 +2470,7 @@
         <v>1968</v>
       </c>
       <c r="E121">
-        <v>3.334080997000006e-09</v>
+        <v>4.793784708837382e-05</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2487,7 +2487,7 @@
         <v>1969</v>
       </c>
       <c r="E122">
-        <v>3.334080997000006e-09</v>
+        <v>4.793785759986972e-05</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2504,7 +2504,7 @@
         <v>1970</v>
       </c>
       <c r="E123">
-        <v>3.334080997000006e-09</v>
+        <v>4.793787044308833e-05</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2521,7 +2521,7 @@
         <v>1971</v>
       </c>
       <c r="E124">
-        <v>3.334080997000006e-09</v>
+        <v>4.793788613526375e-05</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2538,7 +2538,7 @@
         <v>1972</v>
       </c>
       <c r="E125">
-        <v>3.334080997000006e-09</v>
+        <v>4.793790530836429e-05</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2555,7 +2555,7 @@
         <v>1973</v>
       </c>
       <c r="E126">
-        <v>3.334080997000006e-09</v>
+        <v>4.793792873454238e-05</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>1974</v>
       </c>
       <c r="E127">
-        <v>3.334080997000006e-09</v>
+        <v>4.793795735722961e-05</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2589,7 +2589,7 @@
         <v>1975</v>
       </c>
       <c r="E128">
-        <v>3.334080997000006e-09</v>
+        <v>4.79379923291285e-05</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2606,7 +2606,7 @@
         <v>1976</v>
       </c>
       <c r="E129">
-        <v>3.334080997000006e-09</v>
+        <v>4.793803505863076e-05</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2623,7 +2623,7 @@
         <v>1977</v>
       </c>
       <c r="E130">
-        <v>3.334080997000006e-09</v>
+        <v>4.793808726653052e-05</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2640,7 +2640,7 @@
         <v>1978</v>
       </c>
       <c r="E131">
-        <v>3.334080997000006e-09</v>
+        <v>4.793815105531526e-05</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2657,7 +2657,7 @@
         <v>1979</v>
       </c>
       <c r="E132">
-        <v>3.334080997000006e-09</v>
+        <v>4.793822899382345e-05</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2674,7 +2674,7 @@
         <v>1980</v>
       </c>
       <c r="E133">
-        <v>3.334080997000006e-09</v>
+        <v>4.793832422067534e-05</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2691,7 +2691,7 @@
         <v>1981</v>
       </c>
       <c r="E134">
-        <v>3.334080997000006e-09</v>
+        <v>4.793844057063848e-05</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2708,7 +2708,7 @@
         <v>1982</v>
       </c>
       <c r="E135">
-        <v>3.334080997000006e-09</v>
+        <v>4.793858272901099e-05</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2725,7 +2725,7 @@
         <v>1983</v>
       </c>
       <c r="E136">
-        <v>3.334080997000006e-09</v>
+        <v>4.793875642023109e-05</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2742,7 +2742,7 @@
         <v>1984</v>
       </c>
       <c r="E137">
-        <v>3.334080997000006e-09</v>
+        <v>4.79389686382952e-05</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2759,7 +2759,7 @@
         <v>1985</v>
       </c>
       <c r="E138">
-        <v>3.334080997000006e-09</v>
+        <v>4.793922792824403e-05</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2776,7 +2776,7 @@
         <v>1986</v>
       </c>
       <c r="E139">
-        <v>3.334080997000006e-09</v>
+        <v>4.793954473002293e-05</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2793,7 +2793,7 @@
         <v>1987</v>
       </c>
       <c r="E140">
-        <v>3.334080997000006e-09</v>
+        <v>4.793993179851961e-05</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2810,7 +2810,7 @@
         <v>1988</v>
       </c>
       <c r="E141">
-        <v>3.334080997000006e-09</v>
+        <v>4.794040471662831e-05</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2827,7 +2827,7 @@
         <v>1989</v>
       </c>
       <c r="E142">
-        <v>3.334080997000006e-09</v>
+        <v>4.794098252190246e-05</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2844,7 +2844,7 @@
         <v>1990</v>
       </c>
       <c r="E143">
-        <v>3.334080997000006e-09</v>
+        <v>4.794168847188328e-05</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2861,7 +2861,7 @@
         <v>1991</v>
       </c>
       <c r="E144">
-        <v>3.334080997000006e-09</v>
+        <v>4.794255097870238e-05</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2878,7 +2878,7 @@
         <v>1992</v>
       </c>
       <c r="E145">
-        <v>3.334080997000006e-09</v>
+        <v>4.79436047502635e-05</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2895,7 +2895,7 @@
         <v>1993</v>
       </c>
       <c r="E146">
-        <v>3.334080997000006e-09</v>
+        <v>4.794489218346353e-05</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2912,7 +2912,7 @@
         <v>1994</v>
       </c>
       <c r="E147">
-        <v>3.334080997000006e-09</v>
+        <v>4.79464650648178e-05</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2929,7 +2929,7 @@
         <v>1995</v>
       </c>
       <c r="E148">
-        <v>3.334080997000006e-09</v>
+        <v>4.794838664586807e-05</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2946,7 +2946,7 @@
         <v>1996</v>
       </c>
       <c r="E149">
-        <v>3.334080997000006e-09</v>
+        <v>4.79507341752997e-05</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2963,7 +2963,7 @@
         <v>1997</v>
       </c>
       <c r="E150">
-        <v>3.334080997000006e-09</v>
+        <v>4.795360198727237e-05</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2980,7 +2980,7 @@
         <v>1998</v>
       </c>
       <c r="E151">
-        <v>3.334080997000006e-09</v>
+        <v>4.795710526665549e-05</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2997,7 +2997,7 @@
         <v>1999</v>
       </c>
       <c r="E152">
-        <v>3.334080997000007e-09</v>
+        <v>4.796138463731134e-05</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3014,7 +3014,7 @@
         <v>2000</v>
       </c>
       <c r="E153">
-        <v>3.33408099700001e-09</v>
+        <v>4.79666117500213e-05</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3031,7 +3031,7 @@
         <v>2001</v>
       </c>
       <c r="E154">
-        <v>3.334080997000032e-09</v>
+        <v>4.797299608289892e-05</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3048,7 +3048,7 @@
         <v>2002</v>
       </c>
       <c r="E155">
-        <v>3.334080997000155e-09</v>
+        <v>4.798079320999734e-05</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3065,7 +3065,7 @@
         <v>2003</v>
       </c>
       <c r="E156">
-        <v>3.334080997000852e-09</v>
+        <v>4.799031484407944e-05</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3082,7 +3082,7 @@
         <v>2004</v>
       </c>
       <c r="E157">
-        <v>3.334080997004815e-09</v>
+        <v>4.800194101780004e-05</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3099,7 +3099,7 @@
         <v>2005</v>
       </c>
       <c r="E158">
-        <v>3.334080997027337e-09</v>
+        <v>4.801613483413649e-05</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3116,7 +3116,7 @@
         <v>2006</v>
       </c>
       <c r="E159">
-        <v>3.334080997155325e-09</v>
+        <v>4.803346029144486e-05</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3133,7 +3133,7 @@
         <v>2007</v>
       </c>
       <c r="E160">
-        <v>3.334080997882681e-09</v>
+        <v>4.805460376957153e-05</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3150,7 +3150,7 @@
         <v>2008</v>
       </c>
       <c r="E161">
-        <v>3.334081002016222e-09</v>
+        <v>4.808039984779504e-05</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3167,7 +3167,7 @@
         <v>2009</v>
       </c>
       <c r="E162">
-        <v>3.334081025506997e-09</v>
+        <v>4.811186220700072e-05</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3184,7 +3184,7 @@
         <v>2010</v>
       </c>
       <c r="E163">
-        <v>3.334081159004309e-09</v>
+        <v>4.815022043713165e-05</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3201,7 +3201,7 @@
         <v>2011</v>
       </c>
       <c r="E164">
-        <v>3.334081917665188e-09</v>
+        <v>4.819696361001259e-05</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3218,7 +3218,7 @@
         <v>2012</v>
       </c>
       <c r="E165">
-        <v>3.334086229110289e-09</v>
+        <v>4.825389146131627e-05</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3235,7 +3235,7 @@
         <v>2013</v>
       </c>
       <c r="E166">
-        <v>3.334110730912549e-09</v>
+        <v>4.832317391496173e-05</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3252,7 +3252,7 @@
         <v>2014</v>
       </c>
       <c r="E167">
-        <v>3.334249973857751e-09</v>
+        <v>4.840741942204335e-05</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3269,7 +3269,7 @@
         <v>2015</v>
       </c>
       <c r="E168">
-        <v>3.335041286985785e-09</v>
+        <v>4.85097520945177e-05</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3286,7 +3286,7 @@
         <v>2016</v>
       </c>
       <c r="E169">
-        <v>3.339538293751011e-09</v>
+        <v>4.863389678214654e-05</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3303,7 +3303,7 @@
         <v>2017</v>
       </c>
       <c r="E170">
-        <v>3.365094636907168e-09</v>
+        <v>4.878426992695315e-05</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3320,7 +3320,7 @@
         <v>2018</v>
       </c>
       <c r="E171">
-        <v>3.510330503596538e-09</v>
+        <v>4.896607205711097e-05</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3337,7 +3337,7 @@
         <v>2019</v>
       </c>
       <c r="E172">
-        <v>4.335701205491196e-09</v>
+        <v>4.918537495464627e-05</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3354,7 +3354,7 @@
         <v>2020</v>
       </c>
       <c r="E173">
-        <v>9.026255925840813e-09</v>
+        <v>4.944919266199444e-05</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3371,7 +3371,7 @@
         <v>2021</v>
       </c>
       <c r="E174">
-        <v>3.568252164077662e-08</v>
+        <v>4.976552047212026e-05</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3388,7 +3388,7 @@
         <v>2022</v>
       </c>
       <c r="E175">
-        <v>1.871690776440984e-07</v>
+        <v>5.014331996345081e-05</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3405,7 +3405,7 @@
         <v>2023</v>
       </c>
       <c r="E176">
-        <v>1.048057889845771e-06</v>
+        <v>5.059242146772163e-05</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3422,7 +3422,7 @@
         <v>2024</v>
       </c>
       <c r="E177">
-        <v>5.940320271230633e-06</v>
+        <v>5.112330921394945e-05</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3439,7 +3439,7 @@
         <v>2025</v>
       </c>
       <c r="E178">
-        <v>3.373834384696378e-05</v>
+        <v>5.174675082786137e-05</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3456,7 +3456,7 @@
         <v>2026</v>
       </c>
       <c r="E179">
-        <v>0.0001915669811048366</v>
+        <v>5.247323507433466e-05</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3473,7 +3473,7 @@
         <v>2027</v>
       </c>
       <c r="E180">
-        <v>0.001083792048319845</v>
+        <v>5.331219392015322e-05</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3490,7 +3490,7 @@
         <v>2028</v>
       </c>
       <c r="E181">
-        <v>0.006006708758526747</v>
+        <v>5.427101159295769e-05</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3507,7 +3507,7 @@
         <v>2029</v>
       </c>
       <c r="E182">
-        <v>0.02992682598224812</v>
+        <v>5.535386711939443e-05</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3524,7 +3524,7 @@
         <v>2030</v>
       </c>
       <c r="E183">
-        <v>0.09999999742706911</v>
+        <v>5.656051606105581e-05</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3541,7 +3541,7 @@
         <v>2031</v>
       </c>
       <c r="E184">
-        <v>0.170073173035777</v>
+        <v>5.788518215420933e-05</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3558,7 +3558,7 @@
         <v>2032</v>
       </c>
       <c r="E185">
-        <v>0.1939932935874615</v>
+        <v>5.931578100757381e-05</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3575,7 +3575,7 @@
         <v>2033</v>
       </c>
       <c r="E186">
-        <v>0.198916211102994</v>
+        <v>6.083370976798873e-05</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3592,7 +3592,7 @@
         <v>2034</v>
       </c>
       <c r="E187">
-        <v>0.1998084363205652</v>
+        <v>6.241438498466667e-05</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3609,7 +3609,7 @@
         <v>2035</v>
       </c>
       <c r="E188">
-        <v>0.1999662649845607</v>
+        <v>6.402858862856247e-05</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3626,7 +3626,7 @@
         <v>2036</v>
       </c>
       <c r="E189">
-        <v>0.19999406301285</v>
+        <v>6.564451075473692e-05</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3643,7 +3643,7 @@
         <v>2037</v>
       </c>
       <c r="E190">
-        <v>0.1999989552760611</v>
+        <v>6.723020640735165e-05</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3660,7 +3660,7 @@
         <v>2038</v>
       </c>
       <c r="E191">
-        <v>0.1999998161650193</v>
+        <v>6.875607456661976e-05</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3677,7 +3677,7 @@
         <v>2039</v>
       </c>
       <c r="E192">
-        <v>0.199999967651601</v>
+        <v>7.019696094028484e-05</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3694,7 +3694,7 @@
         <v>2040</v>
       </c>
       <c r="E193">
-        <v>0.1999999943078712</v>
+        <v>7.153358661373463e-05</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3711,7 +3711,7 @@
         <v>2041</v>
       </c>
       <c r="E194">
-        <v>0.1999999989984267</v>
+        <v>7.275317177489621e-05</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3728,7 +3728,7 @@
         <v>2042</v>
       </c>
       <c r="E195">
-        <v>0.1999999998237976</v>
+        <v>7.384929789708519e-05</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3745,7 +3745,7 @@
         <v>2043</v>
       </c>
       <c r="E196">
-        <v>0.1999999999690335</v>
+        <v>7.482118084642024e-05</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3762,7 +3762,7 @@
         <v>2044</v>
       </c>
       <c r="E197">
-        <v>0.1999999999945898</v>
+        <v>7.56725866569618e-05</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3779,7 +3779,7 @@
         <v>2045</v>
       </c>
       <c r="E198">
-        <v>0.1999999999990868</v>
+        <v>7.64106157461325e-05</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3796,7 +3796,7 @@
         <v>2046</v>
       </c>
       <c r="E199">
-        <v>0.1999999999998781</v>
+        <v>7.704453281595432e-05</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3813,7 +3813,7 @@
         <v>2047</v>
       </c>
       <c r="E200">
-        <v>0.2000000000000174</v>
+        <v>7.758475505754102e-05</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3830,7 +3830,7 @@
         <v>2048</v>
       </c>
       <c r="E201">
-        <v>0.2000000000000419</v>
+        <v>7.80420508039823e-05</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3847,7 +3847,7 @@
         <v>2049</v>
       </c>
       <c r="E202">
-        <v>0.2000000000000462</v>
+        <v>7.842695513136502e-05</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3864,7 +3864,7 @@
         <v>2050</v>
       </c>
       <c r="E203">
-        <v>0.2000000000000469</v>
+        <v>7.874938055892286e-05</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>1950</v>
       </c>
       <c r="E507">
-        <v>4.393728557904117e-39</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -9049,7 +9049,7 @@
         <v>1951</v>
       </c>
       <c r="E508">
-        <v>1.316758870000808e-38</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -9066,7 +9066,7 @@
         <v>1952</v>
       </c>
       <c r="E509">
-        <v>3.946322365413129e-38</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -9083,7 +9083,7 @@
         <v>1953</v>
       </c>
       <c r="E510">
-        <v>1.182723688241515e-37</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -9100,7 +9100,7 @@
         <v>1954</v>
       </c>
       <c r="E511">
-        <v>3.54466755202922e-37</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -9117,7 +9117,7 @@
         <v>1955</v>
       </c>
       <c r="E512">
-        <v>1.062351456102661e-36</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -9134,7 +9134,7 @@
         <v>1956</v>
       </c>
       <c r="E513">
-        <v>3.183912249526085e-36</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -9151,7 +9151,7 @@
         <v>1957</v>
       </c>
       <c r="E514">
-        <v>9.542320892163285e-36</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -9168,7 +9168,7 @@
         <v>1958</v>
       </c>
       <c r="E515">
-        <v>2.859874415945272e-35</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -9185,7 +9185,7 @@
         <v>1959</v>
       </c>
       <c r="E516">
-        <v>8.571166158142331e-35</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -9202,7 +9202,7 @@
         <v>1960</v>
       </c>
       <c r="E517">
-        <v>2.568815233491343e-34</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -9219,7 +9219,7 @@
         <v>1961</v>
       </c>
       <c r="E518">
-        <v>7.698849365893426e-34</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -9236,7 +9236,7 @@
         <v>1962</v>
       </c>
       <c r="E519">
-        <v>2.30737815693932e-33</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -9253,7 +9253,7 @@
         <v>1963</v>
       </c>
       <c r="E520">
-        <v>6.915311245905621e-33</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -9270,7 +9270,7 @@
         <v>1964</v>
       </c>
       <c r="E521">
-        <v>2.072548424137232e-32</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -9287,7 +9287,7 @@
         <v>1965</v>
       </c>
       <c r="E522">
-        <v>6.2115164708174e-32</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -9304,7 +9304,7 @@
         <v>1966</v>
       </c>
       <c r="E523">
-        <v>1.861618113147189e-31</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -9321,7 +9321,7 @@
         <v>1967</v>
       </c>
       <c r="E524">
-        <v>5.579349286904794e-31</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -9338,7 +9338,7 @@
         <v>1968</v>
       </c>
       <c r="E525">
-        <v>1.672154898228918e-30</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -9355,7 +9355,7 @@
         <v>1969</v>
       </c>
       <c r="E526">
-        <v>5.011519910098273e-30</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -9372,7 +9372,7 @@
         <v>1970</v>
       </c>
       <c r="E527">
-        <v>1.501973999891694e-29</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -9389,7 +9389,7 @@
         <v>1971</v>
       </c>
       <c r="E528">
-        <v>4.501480462653652e-29</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -9406,7 +9406,7 @@
         <v>1972</v>
       </c>
       <c r="E529">
-        <v>1.34911299111128e-28</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -9423,7 +9423,7 @@
         <v>1973</v>
       </c>
       <c r="E530">
-        <v>4.043349466660278e-28</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -9440,7 +9440,7 @@
         <v>1974</v>
       </c>
       <c r="E531">
-        <v>1.211809167746246e-27</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -9457,7 +9457,7 @@
         <v>1975</v>
       </c>
       <c r="E532">
-        <v>3.631844022245185e-27</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -9474,7 +9474,7 @@
         <v>1976</v>
       </c>
       <c r="E533">
-        <v>1.088479222058521e-26</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -9491,7 +9491,7 @@
         <v>1977</v>
       </c>
       <c r="E534">
-        <v>3.262218888245887e-26</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -9508,7 +9508,7 @@
         <v>1978</v>
       </c>
       <c r="E535">
-        <v>9.777009849303365e-26</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -9525,7 +9525,7 @@
         <v>1979</v>
       </c>
       <c r="E536">
-        <v>2.930211762852459e-25</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -9542,7 +9542,7 @@
         <v>1980</v>
       </c>
       <c r="E537">
-        <v>8.781970262381026e-25</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -9559,7 +9559,7 @@
         <v>1981</v>
       </c>
       <c r="E538">
-        <v>2.631994133224988e-24</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -9576,7 +9576,7 @@
         <v>1982</v>
       </c>
       <c r="E539">
-        <v>7.888199242720397e-24</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -9593,7 +9593,7 @@
         <v>1983</v>
       </c>
       <c r="E540">
-        <v>2.364127127312851e-23</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -9610,7 +9610,7 @@
         <v>1984</v>
       </c>
       <c r="E541">
-        <v>7.085390343372009e-23</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -9627,7 +9627,7 @@
         <v>1985</v>
       </c>
       <c r="E542">
-        <v>2.123521858784775e-22</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -9644,7 +9644,7 @@
         <v>1986</v>
       </c>
       <c r="E543">
-        <v>6.364286039589932e-22</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -9661,7 +9661,7 @@
         <v>1987</v>
       </c>
       <c r="E544">
-        <v>1.907403807790246e-21</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -9678,7 +9678,7 @@
         <v>1988</v>
       </c>
       <c r="E545">
-        <v>5.716570976447105e-21</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -9695,7 +9695,7 @@
         <v>1989</v>
       </c>
       <c r="E546">
-        <v>1.71328082681228e-20</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -9712,7 +9712,7 @@
         <v>1990</v>
       </c>
       <c r="E547">
-        <v>5.134776081004563e-20</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -9729,7 +9729,7 @@
         <v>1991</v>
       </c>
       <c r="E548">
-        <v>1.53891440267344e-19</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -9746,7 +9746,7 @@
         <v>1992</v>
       </c>
       <c r="E549">
-        <v>4.612192433311344e-19</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -9763,7 +9763,7 @@
         <v>1993</v>
       </c>
       <c r="E550">
-        <v>1.38229384330536e-18</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -9780,7 +9780,7 @@
         <v>1994</v>
       </c>
       <c r="E551">
-        <v>4.142793903046444e-18</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -9797,7 +9797,7 @@
         <v>1995</v>
       </c>
       <c r="E552">
-        <v>1.241613091618702e-17</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -9814,7 +9814,7 @@
         <v>1996</v>
       </c>
       <c r="E553">
-        <v>3.721167659692967e-17</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -9831,7 +9831,7 @@
         <v>1997</v>
       </c>
       <c r="E554">
-        <v>1.115249899104411e-16</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -9848,7 +9848,7 @@
         <v>1998</v>
       </c>
       <c r="E555">
-        <v>3.342451754928511e-16</v>
+        <v>3.334080997000006e-09</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -9865,7 +9865,7 @@
         <v>1999</v>
       </c>
       <c r="E556">
-        <v>1.0017471190086e-15</v>
+        <v>3.334080997000007e-09</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -9882,7 +9882,7 @@
         <v>2000</v>
       </c>
       <c r="E557">
-        <v>3.002279057468342e-15</v>
+        <v>3.33408099700001e-09</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -9899,7 +9899,7 @@
         <v>2001</v>
       </c>
       <c r="E558">
-        <v>8.997959033646624e-15</v>
+        <v>3.334080997000032e-09</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -9916,7 +9916,7 @@
         <v>2002</v>
       </c>
       <c r="E559">
-        <v>2.696726893850153e-14</v>
+        <v>3.334080997000155e-09</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -9933,7 +9933,7 @@
         <v>2003</v>
       </c>
       <c r="E560">
-        <v>8.08220610120576e-14</v>
+        <v>3.334080997000852e-09</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -9950,7 +9950,7 @@
         <v>2004</v>
       </c>
       <c r="E561">
-        <v>2.422271814446995e-13</v>
+        <v>3.334080997004815e-09</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -9967,7 +9967,7 @@
         <v>2005</v>
       </c>
       <c r="E562">
-        <v>7.259652463184121e-13</v>
+        <v>3.334080997027337e-09</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -9984,7 +9984,7 @@
         <v>2006</v>
       </c>
       <c r="E563">
-        <v>2.175748963089749e-12</v>
+        <v>3.334080997155325e-09</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -10001,7 +10001,7 @@
         <v>2007</v>
       </c>
       <c r="E564">
-        <v>6.520812909911842e-12</v>
+        <v>3.334080997882681e-09</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -10018,7 +10018,7 @@
         <v>2008</v>
       </c>
       <c r="E565">
-        <v>1.954315581723159e-11</v>
+        <v>3.334081002016222e-09</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -10035,7 +10035,7 @@
         <v>2009</v>
       </c>
       <c r="E566">
-        <v>5.857167573124665e-11</v>
+        <v>3.334081025506997e-09</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -10052,7 +10052,7 @@
         <v>2010</v>
       </c>
       <c r="E567">
-        <v>1.75541822884619e-10</v>
+        <v>3.334081159004309e-09</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -10069,7 +10069,7 @@
         <v>2011</v>
       </c>
       <c r="E568">
-        <v>5.261063675052328e-10</v>
+        <v>3.334081917665188e-09</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -10086,7 +10086,7 @@
         <v>2012</v>
       </c>
       <c r="E569">
-        <v>1.576763330443155e-09</v>
+        <v>3.334086229110289e-09</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -10103,7 +10103,7 @@
         <v>2013</v>
       </c>
       <c r="E570">
-        <v>4.725627242701431e-09</v>
+        <v>3.334110730912549e-09</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -10120,7 +10120,7 @@
         <v>2014</v>
       </c>
       <c r="E571">
-        <v>1.416290697385496e-08</v>
+        <v>3.334249973857751e-09</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -10137,7 +10137,7 @@
         <v>2015</v>
       </c>
       <c r="E572">
-        <v>4.244683531868617e-08</v>
+        <v>3.335041286985785e-09</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -10154,7 +10154,7 @@
         <v>2016</v>
       </c>
       <c r="E573">
-        <v>1.272149490679543e-07</v>
+        <v>3.339538293751011e-09</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10171,7 +10171,7 @@
         <v>2017</v>
       </c>
       <c r="E574">
-        <v>3.812683327859355e-07</v>
+        <v>3.365094636907168e-09</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -10188,7 +10188,7 @@
         <v>2018</v>
       </c>
       <c r="E575">
-        <v>1.142674636951159e-06</v>
+        <v>3.510330503596538e-09</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -10205,7 +10205,7 @@
         <v>2019</v>
       </c>
       <c r="E576">
-        <v>3.42461881974683e-06</v>
+        <v>4.335701205491196e-09</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -10222,7 +10222,7 @@
         <v>2020</v>
       </c>
       <c r="E577">
-        <v>1.026349542358414e-05</v>
+        <v>9.026255925840813e-09</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -10239,7 +10239,7 @@
         <v>2021</v>
       </c>
       <c r="E578">
-        <v>3.075803425162698e-05</v>
+        <v>3.568252164077662e-08</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -10256,7 +10256,7 @@
         <v>2022</v>
       </c>
       <c r="E579">
-        <v>9.216427610115268e-05</v>
+        <v>1.871690776440984e-07</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -10273,7 +10273,7 @@
         <v>2023</v>
       </c>
       <c r="E580">
-        <v>0.0002760509200695893</v>
+        <v>1.048057889845771e-06</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -10290,7 +10290,7 @@
         <v>2024</v>
       </c>
       <c r="E581">
-        <v>0.0008258188701827555</v>
+        <v>5.940320271230633e-06</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -10307,7 +10307,7 @@
         <v>2025</v>
       </c>
       <c r="E582">
-        <v>0.00246148272432699</v>
+        <v>3.373834384696378e-05</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -10324,7 +10324,7 @@
         <v>2026</v>
       </c>
       <c r="E583">
-        <v>0.007258236118747514</v>
+        <v>0.0001915669811048366</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -10341,7 +10341,7 @@
         <v>2027</v>
       </c>
       <c r="E584">
-        <v>0.02075062293184379</v>
+        <v>0.001083792048319845</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -10358,7 +10358,7 @@
         <v>2028</v>
       </c>
       <c r="E585">
-        <v>0.05464243321681467</v>
+        <v>0.006006708758526747</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -10375,7 +10375,7 @@
         <v>2029</v>
       </c>
       <c r="E586">
-        <v>0.1200847055333281</v>
+        <v>0.02992682598224812</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -10392,7 +10392,7 @@
         <v>2030</v>
       </c>
       <c r="E587">
-        <v>0.2000108737982936</v>
+        <v>0.09999999742706911</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -10409,7 +10409,7 @@
         <v>2031</v>
       </c>
       <c r="E588">
-        <v>0.2571096361167458</v>
+        <v>0.170073173035777</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -10426,7 +10426,7 @@
         <v>2032</v>
       </c>
       <c r="E589">
-        <v>0.2841785910688742</v>
+        <v>0.1939932935874615</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -10443,7 +10443,7 @@
         <v>2033</v>
       </c>
       <c r="E590">
-        <v>0.294524819909129</v>
+        <v>0.198916211102994</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -10460,7 +10460,7 @@
         <v>2034</v>
       </c>
       <c r="E591">
-        <v>0.2981466468752718</v>
+        <v>0.1998084363205652</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -10477,7 +10477,7 @@
         <v>2035</v>
       </c>
       <c r="E592">
-        <v>0.2993750145976099</v>
+        <v>0.1999662649845607</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -10494,7 +10494,7 @@
         <v>2036</v>
       </c>
       <c r="E593">
-        <v>0.2997871296676156</v>
+        <v>0.19999406301285</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -10511,7 +10511,7 @@
         <v>2037</v>
       </c>
       <c r="E594">
-        <v>0.2999248894654165</v>
+        <v>0.1999989552760611</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -10528,7 +10528,7 @@
         <v>2038</v>
       </c>
       <c r="E595">
-        <v>0.2999708828806558</v>
+        <v>0.1999998161650193</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -10545,7 +10545,7 @@
         <v>2039</v>
       </c>
       <c r="E596">
-        <v>0.2999862322847818</v>
+        <v>0.199999967651601</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -10562,7 +10562,7 @@
         <v>2040</v>
       </c>
       <c r="E597">
-        <v>0.2999913541506728</v>
+        <v>0.1999999943078712</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -10579,7 +10579,7 @@
         <v>2041</v>
       </c>
       <c r="E598">
-        <v>0.2999930631627712</v>
+        <v>0.1999999989984267</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -10596,7 +10596,7 @@
         <v>2042</v>
       </c>
       <c r="E599">
-        <v>0.2999936333998879</v>
+        <v>0.1999999998237976</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -10613,7 +10613,7 @@
         <v>2043</v>
       </c>
       <c r="E600">
-        <v>0.299993823666957</v>
+        <v>0.1999999999690335</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -10630,7 +10630,7 @@
         <v>2044</v>
       </c>
       <c r="E601">
-        <v>0.2999938871519449</v>
+        <v>0.1999999999945898</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -10647,7 +10647,7 @@
         <v>2045</v>
       </c>
       <c r="E602">
-        <v>0.2999939083344934</v>
+        <v>0.1999999999990868</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -10664,7 +10664,7 @@
         <v>2046</v>
       </c>
       <c r="E603">
-        <v>0.2999939154023104</v>
+        <v>0.1999999999998781</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -10681,7 +10681,7 @@
         <v>2047</v>
       </c>
       <c r="E604">
-        <v>0.299993917760574</v>
+        <v>0.2000000000000174</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -10698,7 +10698,7 @@
         <v>2048</v>
       </c>
       <c r="E605">
-        <v>0.2999939185474375</v>
+        <v>0.2000000000000419</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -10715,7 +10715,7 @@
         <v>2049</v>
       </c>
       <c r="E606">
-        <v>0.2999939188099841</v>
+        <v>0.2000000000000462</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -10732,7 +10732,7 @@
         <v>2050</v>
       </c>
       <c r="E607">
-        <v>0.299993918897586</v>
+        <v>0.2000000000000469</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -15900,7 +15900,7 @@
         <v>1950</v>
       </c>
       <c r="E911">
-        <v>2.066096099767607e-28</v>
+        <v>4.393728557904117e-39</v>
       </c>
     </row>
     <row r="912" spans="1:5">
@@ -15917,7 +15917,7 @@
         <v>1951</v>
       </c>
       <c r="E912">
-        <v>4.579696231169344e-28</v>
+        <v>1.316758870000808e-38</v>
       </c>
     </row>
     <row r="913" spans="1:5">
@@ -15934,7 +15934,7 @@
         <v>1952</v>
       </c>
       <c r="E913">
-        <v>1.015132721750362e-27</v>
+        <v>3.946322365413129e-38</v>
       </c>
     </row>
     <row r="914" spans="1:5">
@@ -15951,7 +15951,7 @@
         <v>1953</v>
       </c>
       <c r="E914">
-        <v>2.250137106897659e-27</v>
+        <v>1.182723688241515e-37</v>
       </c>
     </row>
     <row r="915" spans="1:5">
@@ -15968,7 +15968,7 @@
         <v>1954</v>
       </c>
       <c r="E915">
-        <v>4.987640425179252e-27</v>
+        <v>3.54466755202922e-37</v>
       </c>
     </row>
     <row r="916" spans="1:5">
@@ -15985,7 +15985,7 @@
         <v>1955</v>
       </c>
       <c r="E916">
-        <v>1.10555738736172e-26</v>
+        <v>1.062351456102661e-36</v>
       </c>
     </row>
     <row r="917" spans="1:5">
@@ -16002,7 +16002,7 @@
         <v>1956</v>
       </c>
       <c r="E917">
-        <v>2.450571878806581e-26</v>
+        <v>3.183912249526085e-36</v>
       </c>
     </row>
     <row r="918" spans="1:5">
@@ -16019,7 +16019,7 @@
         <v>1957</v>
       </c>
       <c r="E918">
-        <v>5.431922939376291e-26</v>
+        <v>9.542320892163285e-36</v>
       </c>
     </row>
     <row r="919" spans="1:5">
@@ -16036,7 +16036,7 @@
         <v>1958</v>
       </c>
       <c r="E919">
-        <v>1.204036783190071e-25</v>
+        <v>2.859874415945272e-35</v>
       </c>
     </row>
     <row r="920" spans="1:5">
@@ -16053,7 +16053,7 @@
         <v>1959</v>
       </c>
       <c r="E920">
-        <v>2.668860717382762e-25</v>
+        <v>8.571166158142331e-35</v>
       </c>
     </row>
     <row r="921" spans="1:5">
@@ -16070,7 +16070,7 @@
         <v>1960</v>
       </c>
       <c r="E921">
-        <v>5.915780670685195e-25</v>
+        <v>2.568815233491343e-34</v>
       </c>
     </row>
     <row r="922" spans="1:5">
@@ -16087,7 +16087,7 @@
         <v>1961</v>
       </c>
       <c r="E922">
-        <v>1.311288397918884e-24</v>
+        <v>7.698849365893426e-34</v>
       </c>
     </row>
     <row r="923" spans="1:5">
@@ -16104,7 +16104,7 @@
         <v>1962</v>
       </c>
       <c r="E923">
-        <v>2.906594003792873e-24</v>
+        <v>2.30737815693932e-33</v>
       </c>
     </row>
     <row r="924" spans="1:5">
@@ -16121,7 +16121,7 @@
         <v>1963</v>
       </c>
       <c r="E924">
-        <v>6.442738848519381e-24</v>
+        <v>6.915311245905621e-33</v>
       </c>
     </row>
     <row r="925" spans="1:5">
@@ -16138,7 +16138,7 @@
         <v>1964</v>
       </c>
       <c r="E925">
-        <v>1.428093631792239e-23</v>
+        <v>2.072548424137232e-32</v>
       </c>
     </row>
     <row r="926" spans="1:5">
@@ -16155,7 +16155,7 @@
         <v>1965</v>
       </c>
       <c r="E926">
-        <v>3.165503785139828e-23</v>
+        <v>6.2115164708174e-32</v>
       </c>
     </row>
     <row r="927" spans="1:5">
@@ -16172,7 +16172,7 @@
         <v>1966</v>
       </c>
       <c r="E927">
-        <v>7.016636718111526e-23</v>
+        <v>1.861618113147189e-31</v>
       </c>
     </row>
     <row r="928" spans="1:5">
@@ -16189,7 +16189,7 @@
         <v>1967</v>
       </c>
       <c r="E928">
-        <v>1.55530348960792e-22</v>
+        <v>5.579349286904794e-31</v>
       </c>
     </row>
     <row r="929" spans="1:5">
@@ -16206,7 +16206,7 @@
         <v>1968</v>
       </c>
       <c r="E929">
-        <v>3.447476393558568e-22</v>
+        <v>1.672154898228918e-30</v>
       </c>
     </row>
     <row r="930" spans="1:5">
@@ -16223,7 +16223,7 @@
         <v>1969</v>
       </c>
       <c r="E930">
-        <v>7.641655511966875e-22</v>
+        <v>5.011519910098273e-30</v>
       </c>
     </row>
     <row r="931" spans="1:5">
@@ -16240,7 +16240,7 @@
         <v>1970</v>
       </c>
       <c r="E931">
-        <v>1.693844780857126e-21</v>
+        <v>1.501973999891694e-29</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -16257,7 +16257,7 @@
         <v>1971</v>
       </c>
       <c r="E932">
-        <v>3.754566189412601e-21</v>
+        <v>4.501480462653652e-29</v>
       </c>
     </row>
     <row r="933" spans="1:5">
@@ -16274,7 +16274,7 @@
         <v>1972</v>
       </c>
       <c r="E933">
-        <v>8.322348912954738e-21</v>
+        <v>1.34911299111128e-28</v>
       </c>
     </row>
     <row r="934" spans="1:5">
@@ -16291,7 +16291,7 @@
         <v>1973</v>
       </c>
       <c r="E934">
-        <v>1.844726872155484e-20</v>
+        <v>4.043349466660278e-28</v>
       </c>
     </row>
     <row r="935" spans="1:5">
@@ -16308,7 +16308,7 @@
         <v>1974</v>
       </c>
       <c r="E935">
-        <v>4.089010528692625e-20</v>
+        <v>1.211809167746246e-27</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -16325,7 +16325,7 @@
         <v>1975</v>
       </c>
       <c r="E936">
-        <v>9.063676230954738e-20</v>
+        <v>3.631844022245185e-27</v>
       </c>
     </row>
     <row r="937" spans="1:5">
@@ -16342,7 +16342,7 @@
         <v>1976</v>
       </c>
       <c r="E937">
-        <v>2.009049041158627e-19</v>
+        <v>1.088479222058521e-26</v>
       </c>
     </row>
     <row r="938" spans="1:5">
@@ -16359,7 +16359,7 @@
         <v>1977</v>
       </c>
       <c r="E938">
-        <v>4.453246063661743e-19</v>
+        <v>3.262218888245887e-26</v>
       </c>
     </row>
     <row r="939" spans="1:5">
@@ -16376,7 +16376,7 @@
         <v>1978</v>
       </c>
       <c r="E939">
-        <v>9.871038534769644e-19</v>
+        <v>9.777009849303365e-26</v>
       </c>
     </row>
     <row r="940" spans="1:5">
@@ -16393,7 +16393,7 @@
         <v>1979</v>
       </c>
       <c r="E940">
-        <v>2.188008485540291e-18</v>
+        <v>2.930211762852459e-25</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -16410,7 +16410,7 @@
         <v>1980</v>
       </c>
       <c r="E941">
-        <v>4.849926495508312e-18</v>
+        <v>8.781970262381026e-25</v>
       </c>
     </row>
     <row r="942" spans="1:5">
@@ -16427,7 +16427,7 @@
         <v>1981</v>
       </c>
       <c r="E942">
-        <v>1.075031800254889e-17</v>
+        <v>2.631994133224988e-24</v>
       </c>
     </row>
     <row r="943" spans="1:5">
@@ -16444,7 +16444,7 @@
         <v>1982</v>
       </c>
       <c r="E943">
-        <v>2.382909045383671e-17</v>
+        <v>7.888199242720397e-24</v>
       </c>
     </row>
     <row r="944" spans="1:5">
@@ -16461,7 +16461,7 @@
         <v>1983</v>
       </c>
       <c r="E944">
-        <v>5.281941908346384e-17</v>
+        <v>2.364127127312851e-23</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -16478,7 +16478,7 @@
         <v>1984</v>
       </c>
       <c r="E945">
-        <v>1.170792077741836e-16</v>
+        <v>7.085390343372009e-23</v>
       </c>
     </row>
     <row r="946" spans="1:5">
@@ -16495,7 +16495,7 @@
         <v>1985</v>
       </c>
       <c r="E946">
-        <v>2.595170702534644e-16</v>
+        <v>2.123521858784775e-22</v>
       </c>
     </row>
     <row r="947" spans="1:5">
@@ -16512,7 +16512,7 @@
         <v>1986</v>
       </c>
       <c r="E947">
-        <v>5.752439825424981e-16</v>
+        <v>6.364286039589932e-22</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -16529,7 +16529,7 @@
         <v>1987</v>
       </c>
       <c r="E948">
-        <v>1.275082364054755e-15</v>
+        <v>1.907403807790246e-21</v>
       </c>
     </row>
     <row r="949" spans="1:5">
@@ -16546,7 +16546,7 @@
         <v>1988</v>
       </c>
       <c r="E949">
-        <v>2.826339926125778e-15</v>
+        <v>5.716570976447105e-21</v>
       </c>
     </row>
     <row r="950" spans="1:5">
@@ -16563,7 +16563,7 @@
         <v>1989</v>
       </c>
       <c r="E950">
-        <v>6.264848140954766e-15</v>
+        <v>1.71328082681228e-20</v>
       </c>
     </row>
     <row r="951" spans="1:5">
@@ -16580,7 +16580,7 @@
         <v>1990</v>
       </c>
       <c r="E951">
-        <v>1.388662484169913e-14</v>
+        <v>5.134776081004563e-20</v>
       </c>
     </row>
     <row r="952" spans="1:5">
@@ -16597,7 +16597,7 @@
         <v>1991</v>
       </c>
       <c r="E952">
-        <v>3.078100939645507e-14</v>
+        <v>1.53891440267344e-19</v>
       </c>
     </row>
     <row r="953" spans="1:5">
@@ -16614,7 +16614,7 @@
         <v>1992</v>
       </c>
       <c r="E953">
-        <v>6.822900094625833e-14</v>
+        <v>4.612192433311344e-19</v>
       </c>
     </row>
     <row r="954" spans="1:5">
@@ -16631,7 +16631,7 @@
         <v>1993</v>
       </c>
       <c r="E954">
-        <v>1.512359945759398e-13</v>
+        <v>1.38229384330536e-18</v>
       </c>
     </row>
     <row r="955" spans="1:5">
@@ -16648,7 +16648,7 @@
         <v>1994</v>
       </c>
       <c r="E955">
-        <v>3.352287991639533e-13</v>
+        <v>4.142793903046444e-18</v>
       </c>
     </row>
     <row r="956" spans="1:5">
@@ -16665,7 +16665,7 @@
         <v>1995</v>
       </c>
       <c r="E956">
-        <v>7.43066147076789e-13</v>
+        <v>1.241613091618702e-17</v>
       </c>
     </row>
     <row r="957" spans="1:5">
@@ -16682,7 +16682,7 @@
         <v>1996</v>
       </c>
       <c r="E957">
-        <v>1.647075968139334e-12</v>
+        <v>3.721167659692967e-17</v>
       </c>
     </row>
     <row r="958" spans="1:5">
@@ -16699,7 +16699,7 @@
         <v>1997</v>
       </c>
       <c r="E958">
-        <v>3.650898719434604e-12</v>
+        <v>1.115249899104411e-16</v>
       </c>
     </row>
     <row r="959" spans="1:5">
@@ -16716,7 +16716,7 @@
         <v>1998</v>
       </c>
       <c r="E959">
-        <v>8.092560220267438e-12</v>
+        <v>3.342451754928511e-16</v>
       </c>
     </row>
     <row r="960" spans="1:5">
@@ -16733,7 +16733,7 @@
         <v>1999</v>
       </c>
       <c r="E960">
-        <v>1.79379204823001e-11</v>
+        <v>1.0017471190086e-15</v>
       </c>
     </row>
     <row r="961" spans="1:5">
@@ -16750,7 +16750,7 @@
         <v>2000</v>
       </c>
       <c r="E961">
-        <v>3.976108703126624e-11</v>
+        <v>3.002279057468342e-15</v>
       </c>
     </row>
     <row r="962" spans="1:5">
@@ -16767,7 +16767,7 @@
         <v>2001</v>
       </c>
       <c r="E962">
-        <v>8.813418720458328e-11</v>
+        <v>8.997959033646624e-15</v>
       </c>
     </row>
     <row r="963" spans="1:5">
@@ -16784,7 +16784,7 @@
         <v>2002</v>
       </c>
       <c r="E963">
-        <v>1.953577111071274e-10</v>
+        <v>2.696726893850153e-14</v>
       </c>
     </row>
     <row r="964" spans="1:5">
@@ -16801,7 +16801,7 @@
         <v>2003</v>
       </c>
       <c r="E964">
-        <v>4.330287314423565e-10</v>
+        <v>8.08220610120576e-14</v>
       </c>
     </row>
     <row r="965" spans="1:5">
@@ -16818,7 +16818,7 @@
         <v>2004</v>
       </c>
       <c r="E965">
-        <v>9.59848890092151e-10</v>
+        <v>2.422271814446995e-13</v>
       </c>
     </row>
     <row r="966" spans="1:5">
@@ -16835,7 +16835,7 @@
         <v>2005</v>
       </c>
       <c r="E966">
-        <v>2.127595293501255e-09</v>
+        <v>7.259652463184121e-13</v>
       </c>
     </row>
     <row r="967" spans="1:5">
@@ -16852,7 +16852,7 @@
         <v>2006</v>
       </c>
       <c r="E967">
-        <v>4.716014958674451e-09</v>
+        <v>2.175748963089749e-12</v>
       </c>
     </row>
     <row r="968" spans="1:5">
@@ -16869,7 +16869,7 @@
         <v>2007</v>
       </c>
       <c r="E968">
-        <v>1.045349040690309e-08</v>
+        <v>6.520812909911842e-12</v>
       </c>
     </row>
     <row r="969" spans="1:5">
@@ -16886,7 +16886,7 @@
         <v>2008</v>
       </c>
       <c r="E969">
-        <v>2.317114376334962e-08</v>
+        <v>1.954315581723159e-11</v>
       </c>
     </row>
     <row r="970" spans="1:5">
@@ -16903,7 +16903,7 @@
         <v>2009</v>
       </c>
       <c r="E970">
-        <v>5.136101632427124e-08</v>
+        <v>5.857167573124665e-11</v>
       </c>
     </row>
     <row r="971" spans="1:5">
@@ -16920,7 +16920,7 @@
         <v>2010</v>
       </c>
       <c r="E971">
-        <v>1.138465107963783e-07</v>
+        <v>1.75541822884619e-10</v>
       </c>
     </row>
     <row r="972" spans="1:5">
@@ -16937,7 +16937,7 @@
         <v>2011</v>
       </c>
       <c r="E972">
-        <v>2.52351443575801e-07</v>
+        <v>5.261063675052328e-10</v>
       </c>
     </row>
     <row r="973" spans="1:5">
@@ -16954,7 +16954,7 @@
         <v>2012</v>
       </c>
       <c r="E973">
-        <v>5.593604520677671e-07</v>
+        <v>1.576763330443155e-09</v>
       </c>
     </row>
     <row r="974" spans="1:5">
@@ -16971,7 +16971,7 @@
         <v>2013</v>
       </c>
       <c r="E974">
-        <v>1.239873820238299e-06</v>
+        <v>4.725627242701431e-09</v>
       </c>
     </row>
     <row r="975" spans="1:5">
@@ -16988,7 +16988,7 @@
         <v>2014</v>
       </c>
       <c r="E975">
-        <v>2.74829095664659e-06</v>
+        <v>1.416290697385496e-08</v>
       </c>
     </row>
     <row r="976" spans="1:5">
@@ -17005,7 +17005,7 @@
         <v>2015</v>
       </c>
       <c r="E976">
-        <v>6.091816165344413e-06</v>
+        <v>4.244683531868617e-08</v>
       </c>
     </row>
     <row r="977" spans="1:5">
@@ -17022,7 +17022,7 @@
         <v>2016</v>
       </c>
       <c r="E977">
-        <v>1.350294023869267e-05</v>
+        <v>1.272149490679543e-07</v>
       </c>
     </row>
     <row r="978" spans="1:5">
@@ -17039,7 +17039,7 @@
         <v>2017</v>
       </c>
       <c r="E978">
-        <v>2.992983401080891e-05</v>
+        <v>3.812683327859355e-07</v>
       </c>
     </row>
     <row r="979" spans="1:5">
@@ -17056,7 +17056,7 @@
         <v>2018</v>
       </c>
       <c r="E979">
-        <v>6.633883988271744e-05</v>
+        <v>1.142674636951159e-06</v>
       </c>
     </row>
     <row r="980" spans="1:5">
@@ -17073,7 +17073,7 @@
         <v>2019</v>
       </c>
       <c r="E980">
-        <v>0.0001470293229245064</v>
+        <v>3.42461881974683e-06</v>
       </c>
     </row>
     <row r="981" spans="1:5">
@@ -17090,7 +17090,7 @@
         <v>2020</v>
       </c>
       <c r="E981">
-        <v>0.0003258210569611589</v>
+        <v>1.026349542358414e-05</v>
       </c>
     </row>
     <row r="982" spans="1:5">
@@ -17107,7 +17107,7 @@
         <v>2021</v>
       </c>
       <c r="E982">
-        <v>0.0007218042623730973</v>
+        <v>3.075803425162698e-05</v>
       </c>
     </row>
     <row r="983" spans="1:5">
@@ -17124,7 +17124,7 @@
         <v>2022</v>
       </c>
       <c r="E983">
-        <v>0.001597942396905782</v>
+        <v>9.216427610115268e-05</v>
       </c>
     </row>
     <row r="984" spans="1:5">
@@ -17141,7 +17141,7 @@
         <v>2023</v>
       </c>
       <c r="E984">
-        <v>0.003532179919769113</v>
+        <v>0.0002760509200695893</v>
       </c>
     </row>
     <row r="985" spans="1:5">
@@ -17158,7 +17158,7 @@
         <v>2024</v>
       </c>
       <c r="E985">
-        <v>0.007781638086091862</v>
+        <v>0.0008258188701827555</v>
       </c>
     </row>
     <row r="986" spans="1:5">
@@ -17175,7 +17175,7 @@
         <v>2025</v>
       </c>
       <c r="E986">
-        <v>0.01701856577640372</v>
+        <v>0.00246148272432699</v>
       </c>
     </row>
     <row r="987" spans="1:5">
@@ -17192,7 +17192,7 @@
         <v>2026</v>
       </c>
       <c r="E987">
-        <v>0.03663952113864852</v>
+        <v>0.007258236118747514</v>
       </c>
     </row>
     <row r="988" spans="1:5">
@@ -17209,7 +17209,7 @@
         <v>2027</v>
       </c>
       <c r="E988">
-        <v>0.07635284960567058</v>
+        <v>0.02075062293184379</v>
       </c>
     </row>
     <row r="989" spans="1:5">
@@ -17226,7 +17226,7 @@
         <v>2028</v>
       </c>
       <c r="E989">
-        <v>0.1494156890324442</v>
+        <v>0.05464243321681467</v>
       </c>
     </row>
     <row r="990" spans="1:5">
@@ -17243,7 +17243,7 @@
         <v>2029</v>
       </c>
       <c r="E990">
-        <v>0.2629183481898105</v>
+        <v>0.1200847055333281</v>
       </c>
     </row>
     <row r="991" spans="1:5">
@@ -17260,7 +17260,7 @@
         <v>2030</v>
       </c>
       <c r="E991">
-        <v>0.400002085197868</v>
+        <v>0.2000108737982936</v>
       </c>
     </row>
     <row r="992" spans="1:5">
@@ -17277,7 +17277,7 @@
         <v>2031</v>
       </c>
       <c r="E992">
-        <v>0.5230306749040904</v>
+        <v>0.2571096361167458</v>
       </c>
     </row>
     <row r="993" spans="1:5">
@@ -17294,7 +17294,7 @@
         <v>2032</v>
       </c>
       <c r="E993">
-        <v>0.6072980627014853</v>
+        <v>0.2841785910688742</v>
       </c>
     </row>
     <row r="994" spans="1:5">
@@ -17311,7 +17311,7 @@
         <v>2033</v>
       </c>
       <c r="E994">
-        <v>0.6548995956450417</v>
+        <v>0.294524819909129</v>
       </c>
     </row>
     <row r="995" spans="1:5">
@@ -17328,7 +17328,7 @@
         <v>2034</v>
       </c>
       <c r="E995">
-        <v>0.6789068835401394</v>
+        <v>0.2981466468752718</v>
       </c>
     </row>
     <row r="996" spans="1:5">
@@ -17345,7 +17345,7 @@
         <v>2035</v>
       </c>
       <c r="E996">
-        <v>0.6903234323824303</v>
+        <v>0.2993750145976099</v>
       </c>
     </row>
     <row r="997" spans="1:5">
@@ -17362,7 +17362,7 @@
         <v>2036</v>
       </c>
       <c r="E997">
-        <v>0.6956005697749367</v>
+        <v>0.2997871296676156</v>
       </c>
     </row>
     <row r="998" spans="1:5">
@@ -17379,7 +17379,7 @@
         <v>2037</v>
       </c>
       <c r="E998">
-        <v>0.6980078126780066</v>
+        <v>0.2999248894654165</v>
       </c>
     </row>
     <row r="999" spans="1:5">
@@ -17396,7 +17396,7 @@
         <v>2038</v>
       </c>
       <c r="E999">
-        <v>0.699099284904622</v>
+        <v>0.2999708828806558</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
@@ -17413,7 +17413,7 @@
         <v>2039</v>
       </c>
       <c r="E1000">
-        <v>0.6995928126692679</v>
+        <v>0.2999862322847818</v>
       </c>
     </row>
     <row r="1001" spans="1:5">
@@ -17430,7 +17430,7 @@
         <v>2040</v>
       </c>
       <c r="E1001">
-        <v>0.6998156922356266</v>
+        <v>0.2999913541506728</v>
       </c>
     </row>
     <row r="1002" spans="1:5">
@@ -17447,7 +17447,7 @@
         <v>2041</v>
       </c>
       <c r="E1002">
-        <v>0.6999162891967138</v>
+        <v>0.2999930631627712</v>
       </c>
     </row>
     <row r="1003" spans="1:5">
@@ -17464,7 +17464,7 @@
         <v>2042</v>
       </c>
       <c r="E1003">
-        <v>0.6999616822396106</v>
+        <v>0.2999936333998879</v>
       </c>
     </row>
     <row r="1004" spans="1:5">
@@ -17481,7 +17481,7 @@
         <v>2043</v>
       </c>
       <c r="E1004">
-        <v>0.699982162902735</v>
+        <v>0.299993823666957</v>
       </c>
     </row>
     <row r="1005" spans="1:5">
@@ -17498,7 +17498,7 @@
         <v>2044</v>
       </c>
       <c r="E1005">
-        <v>0.6999914029948239</v>
+        <v>0.2999938871519449</v>
       </c>
     </row>
     <row r="1006" spans="1:5">
@@ -17515,7 +17515,7 @@
         <v>2045</v>
       </c>
       <c r="E1006">
-        <v>0.6999955716739157</v>
+        <v>0.2999939083344934</v>
       </c>
     </row>
     <row r="1007" spans="1:5">
@@ -17532,7 +17532,7 @@
         <v>2046</v>
       </c>
       <c r="E1007">
-        <v>0.6999974523589241</v>
+        <v>0.2999939154023104</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -17549,7 +17549,7 @@
         <v>2047</v>
       </c>
       <c r="E1008">
-        <v>0.6999983008193706</v>
+        <v>0.299993917760574</v>
       </c>
     </row>
     <row r="1009" spans="1:5">
@@ -17566,7 +17566,7 @@
         <v>2048</v>
       </c>
       <c r="E1009">
-        <v>0.6999986835967023</v>
+        <v>0.2999939185474375</v>
       </c>
     </row>
     <row r="1010" spans="1:5">
@@ -17583,7 +17583,7 @@
         <v>2049</v>
       </c>
       <c r="E1010">
-        <v>0.6999988562840026</v>
+        <v>0.2999939188099841</v>
       </c>
     </row>
     <row r="1011" spans="1:5">
@@ -17600,7 +17600,7 @@
         <v>2050</v>
       </c>
       <c r="E1011">
-        <v>0.6999989341906295</v>
+        <v>0.299993918897586</v>
       </c>
     </row>
     <row r="1012" spans="1:5">
@@ -22768,7 +22768,7 @@
         <v>1950</v>
       </c>
       <c r="E1315">
-        <v>0.002841903121660881</v>
+        <v>2.066096099767607e-28</v>
       </c>
     </row>
     <row r="1316" spans="1:5">
@@ -22785,7 +22785,7 @@
         <v>1951</v>
       </c>
       <c r="E1316">
-        <v>0.002841903121660881</v>
+        <v>4.579696231169344e-28</v>
       </c>
     </row>
     <row r="1317" spans="1:5">
@@ -22802,7 +22802,7 @@
         <v>1952</v>
       </c>
       <c r="E1317">
-        <v>0.002841903121660881</v>
+        <v>1.015132721750362e-27</v>
       </c>
     </row>
     <row r="1318" spans="1:5">
@@ -22819,7 +22819,7 @@
         <v>1953</v>
       </c>
       <c r="E1318">
-        <v>0.002841903121660881</v>
+        <v>2.250137106897659e-27</v>
       </c>
     </row>
     <row r="1319" spans="1:5">
@@ -22836,7 +22836,7 @@
         <v>1954</v>
       </c>
       <c r="E1319">
-        <v>0.002841903121660881</v>
+        <v>4.987640425179252e-27</v>
       </c>
     </row>
     <row r="1320" spans="1:5">
@@ -22853,7 +22853,7 @@
         <v>1955</v>
       </c>
       <c r="E1320">
-        <v>0.002841903121660881</v>
+        <v>1.10555738736172e-26</v>
       </c>
     </row>
     <row r="1321" spans="1:5">
@@ -22870,7 +22870,7 @@
         <v>1956</v>
       </c>
       <c r="E1321">
-        <v>0.002841903121660881</v>
+        <v>2.450571878806581e-26</v>
       </c>
     </row>
     <row r="1322" spans="1:5">
@@ -22887,7 +22887,7 @@
         <v>1957</v>
       </c>
       <c r="E1322">
-        <v>0.002841903121660881</v>
+        <v>5.431922939376291e-26</v>
       </c>
     </row>
     <row r="1323" spans="1:5">
@@ -22904,7 +22904,7 @@
         <v>1958</v>
       </c>
       <c r="E1323">
-        <v>0.002841903121660881</v>
+        <v>1.204036783190071e-25</v>
       </c>
     </row>
     <row r="1324" spans="1:5">
@@ -22921,7 +22921,7 @@
         <v>1959</v>
       </c>
       <c r="E1324">
-        <v>0.002841903121660881</v>
+        <v>2.668860717382762e-25</v>
       </c>
     </row>
     <row r="1325" spans="1:5">
@@ -22938,7 +22938,7 @@
         <v>1960</v>
       </c>
       <c r="E1325">
-        <v>0.002841903121660881</v>
+        <v>5.915780670685195e-25</v>
       </c>
     </row>
     <row r="1326" spans="1:5">
@@ -22955,7 +22955,7 @@
         <v>1961</v>
       </c>
       <c r="E1326">
-        <v>0.002841903121660881</v>
+        <v>1.311288397918884e-24</v>
       </c>
     </row>
     <row r="1327" spans="1:5">
@@ -22972,7 +22972,7 @@
         <v>1962</v>
       </c>
       <c r="E1327">
-        <v>0.002841903121660881</v>
+        <v>2.906594003792873e-24</v>
       </c>
     </row>
     <row r="1328" spans="1:5">
@@ -22989,7 +22989,7 @@
         <v>1963</v>
       </c>
       <c r="E1328">
-        <v>0.002841903121660881</v>
+        <v>6.442738848519381e-24</v>
       </c>
     </row>
     <row r="1329" spans="1:5">
@@ -23006,7 +23006,7 @@
         <v>1964</v>
       </c>
       <c r="E1329">
-        <v>0.002841903121660881</v>
+        <v>1.428093631792239e-23</v>
       </c>
     </row>
     <row r="1330" spans="1:5">
@@ -23023,7 +23023,7 @@
         <v>1965</v>
       </c>
       <c r="E1330">
-        <v>0.002841903121660881</v>
+        <v>3.165503785139828e-23</v>
       </c>
     </row>
     <row r="1331" spans="1:5">
@@ -23040,7 +23040,7 @@
         <v>1966</v>
       </c>
       <c r="E1331">
-        <v>0.002841903121660881</v>
+        <v>7.016636718111526e-23</v>
       </c>
     </row>
     <row r="1332" spans="1:5">
@@ -23057,7 +23057,7 @@
         <v>1967</v>
       </c>
       <c r="E1332">
-        <v>0.002841903121660881</v>
+        <v>1.55530348960792e-22</v>
       </c>
     </row>
     <row r="1333" spans="1:5">
@@ -23074,7 +23074,7 @@
         <v>1968</v>
       </c>
       <c r="E1333">
-        <v>0.002841903121660881</v>
+        <v>3.447476393558568e-22</v>
       </c>
     </row>
     <row r="1334" spans="1:5">
@@ -23091,7 +23091,7 @@
         <v>1969</v>
       </c>
       <c r="E1334">
-        <v>0.002841903121660881</v>
+        <v>7.641655511966875e-22</v>
       </c>
     </row>
     <row r="1335" spans="1:5">
@@ -23108,7 +23108,7 @@
         <v>1970</v>
       </c>
       <c r="E1335">
-        <v>0.002841903121660881</v>
+        <v>1.693844780857126e-21</v>
       </c>
     </row>
     <row r="1336" spans="1:5">
@@ -23125,7 +23125,7 @@
         <v>1971</v>
       </c>
       <c r="E1336">
-        <v>0.002841903121660881</v>
+        <v>3.754566189412601e-21</v>
       </c>
     </row>
     <row r="1337" spans="1:5">
@@ -23142,7 +23142,7 @@
         <v>1972</v>
       </c>
       <c r="E1337">
-        <v>0.002841903121660881</v>
+        <v>8.322348912954738e-21</v>
       </c>
     </row>
     <row r="1338" spans="1:5">
@@ -23159,7 +23159,7 @@
         <v>1973</v>
       </c>
       <c r="E1338">
-        <v>0.002841903121660881</v>
+        <v>1.844726872155484e-20</v>
       </c>
     </row>
     <row r="1339" spans="1:5">
@@ -23176,7 +23176,7 @@
         <v>1974</v>
       </c>
       <c r="E1339">
-        <v>0.002841903121660882</v>
+        <v>4.089010528692625e-20</v>
       </c>
     </row>
     <row r="1340" spans="1:5">
@@ -23193,7 +23193,7 @@
         <v>1975</v>
       </c>
       <c r="E1340">
-        <v>0.002841903121660883</v>
+        <v>9.063676230954738e-20</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -23210,7 +23210,7 @@
         <v>1976</v>
       </c>
       <c r="E1341">
-        <v>0.002841903121660886</v>
+        <v>2.009049041158627e-19</v>
       </c>
     </row>
     <row r="1342" spans="1:5">
@@ -23227,7 +23227,7 @@
         <v>1977</v>
       </c>
       <c r="E1342">
-        <v>0.002841903121660893</v>
+        <v>4.453246063661743e-19</v>
       </c>
     </row>
     <row r="1343" spans="1:5">
@@ -23244,7 +23244,7 @@
         <v>1978</v>
       </c>
       <c r="E1343">
-        <v>0.002841903121660905</v>
+        <v>9.871038534769644e-19</v>
       </c>
     </row>
     <row r="1344" spans="1:5">
@@ -23261,7 +23261,7 @@
         <v>1979</v>
       </c>
       <c r="E1344">
-        <v>0.00284190312166093</v>
+        <v>2.188008485540291e-18</v>
       </c>
     </row>
     <row r="1345" spans="1:5">
@@ -23278,7 +23278,7 @@
         <v>1980</v>
       </c>
       <c r="E1345">
-        <v>0.002841903121660982</v>
+        <v>4.849926495508312e-18</v>
       </c>
     </row>
     <row r="1346" spans="1:5">
@@ -23295,7 +23295,7 @@
         <v>1981</v>
       </c>
       <c r="E1346">
-        <v>0.00284190312166109</v>
+        <v>1.075031800254889e-17</v>
       </c>
     </row>
     <row r="1347" spans="1:5">
@@ -23312,7 +23312,7 @@
         <v>1982</v>
       </c>
       <c r="E1347">
-        <v>0.002841903121661312</v>
+        <v>2.382909045383671e-17</v>
       </c>
     </row>
     <row r="1348" spans="1:5">
@@ -23329,7 +23329,7 @@
         <v>1983</v>
       </c>
       <c r="E1348">
-        <v>0.002841903121661772</v>
+        <v>5.281941908346384e-17</v>
       </c>
     </row>
     <row r="1349" spans="1:5">
@@ -23346,7 +23346,7 @@
         <v>1984</v>
       </c>
       <c r="E1349">
-        <v>0.002841903121662719</v>
+        <v>1.170792077741836e-16</v>
       </c>
     </row>
     <row r="1350" spans="1:5">
@@ -23363,7 +23363,7 @@
         <v>1985</v>
       </c>
       <c r="E1350">
-        <v>0.002841903121664674</v>
+        <v>2.595170702534644e-16</v>
       </c>
     </row>
     <row r="1351" spans="1:5">
@@ -23380,7 +23380,7 @@
         <v>1986</v>
       </c>
       <c r="E1351">
-        <v>0.002841903121668707</v>
+        <v>5.752439825424981e-16</v>
       </c>
     </row>
     <row r="1352" spans="1:5">
@@ -23397,7 +23397,7 @@
         <v>1987</v>
       </c>
       <c r="E1352">
-        <v>0.00284190312167703</v>
+        <v>1.275082364054755e-15</v>
       </c>
     </row>
     <row r="1353" spans="1:5">
@@ -23414,7 +23414,7 @@
         <v>1988</v>
       </c>
       <c r="E1353">
-        <v>0.002841903121694203</v>
+        <v>2.826339926125778e-15</v>
       </c>
     </row>
     <row r="1354" spans="1:5">
@@ -23431,7 +23431,7 @@
         <v>1989</v>
       </c>
       <c r="E1354">
-        <v>0.002841903121729639</v>
+        <v>6.264848140954766e-15</v>
       </c>
     </row>
     <row r="1355" spans="1:5">
@@ -23448,7 +23448,7 @@
         <v>1990</v>
       </c>
       <c r="E1355">
-        <v>0.002841903121802758</v>
+        <v>1.388662484169913e-14</v>
       </c>
     </row>
     <row r="1356" spans="1:5">
@@ -23465,7 +23465,7 @@
         <v>1991</v>
       </c>
       <c r="E1356">
-        <v>0.002841903121953635</v>
+        <v>3.078100939645507e-14</v>
       </c>
     </row>
     <row r="1357" spans="1:5">
@@ -23482,7 +23482,7 @@
         <v>1992</v>
       </c>
       <c r="E1357">
-        <v>0.002841903122264959</v>
+        <v>6.822900094625833e-14</v>
       </c>
     </row>
     <row r="1358" spans="1:5">
@@ -23499,7 +23499,7 @@
         <v>1993</v>
       </c>
       <c r="E1358">
-        <v>0.002841903122907354</v>
+        <v>1.512359945759398e-13</v>
       </c>
     </row>
     <row r="1359" spans="1:5">
@@ -23516,7 +23516,7 @@
         <v>1994</v>
       </c>
       <c r="E1359">
-        <v>0.002841903124232892</v>
+        <v>3.352287991639533e-13</v>
       </c>
     </row>
     <row r="1360" spans="1:5">
@@ -23533,7 +23533,7 @@
         <v>1995</v>
       </c>
       <c r="E1360">
-        <v>0.002841903126968049</v>
+        <v>7.43066147076789e-13</v>
       </c>
     </row>
     <row r="1361" spans="1:5">
@@ -23550,7 +23550,7 @@
         <v>1996</v>
       </c>
       <c r="E1361">
-        <v>0.002841903132611855</v>
+        <v>1.647075968139334e-12</v>
       </c>
     </row>
     <row r="1362" spans="1:5">
@@ -23567,7 +23567,7 @@
         <v>1997</v>
       </c>
       <c r="E1362">
-        <v>0.002841903144257458</v>
+        <v>3.650898719434604e-12</v>
       </c>
     </row>
     <row r="1363" spans="1:5">
@@ -23584,7 +23584,7 @@
         <v>1998</v>
       </c>
       <c r="E1363">
-        <v>0.002841903168287353</v>
+        <v>8.092560220267438e-12</v>
       </c>
     </row>
     <row r="1364" spans="1:5">
@@ -23601,7 +23601,7 @@
         <v>1999</v>
       </c>
       <c r="E1364">
-        <v>0.002841903217871379</v>
+        <v>1.79379204823001e-11</v>
       </c>
     </row>
     <row r="1365" spans="1:5">
@@ -23618,7 +23618,7 @@
         <v>2000</v>
       </c>
       <c r="E1365">
-        <v>0.002841903320184584</v>
+        <v>3.976108703126624e-11</v>
       </c>
     </row>
     <row r="1366" spans="1:5">
@@ -23635,7 +23635,7 @@
         <v>2001</v>
       </c>
       <c r="E1366">
-        <v>0.002841903531300799</v>
+        <v>8.813418720458328e-11</v>
       </c>
     </row>
     <row r="1367" spans="1:5">
@@ -23652,7 +23652,7 @@
         <v>2002</v>
       </c>
       <c r="E1367">
-        <v>0.002841903966924495</v>
+        <v>1.953577111071274e-10</v>
       </c>
     </row>
     <row r="1368" spans="1:5">
@@ -23669,7 +23669,7 @@
         <v>2003</v>
       </c>
       <c r="E1368">
-        <v>0.002841904865803834</v>
+        <v>4.330287314423565e-10</v>
       </c>
     </row>
     <row r="1369" spans="1:5">
@@ -23686,7 +23686,7 @@
         <v>2004</v>
       </c>
       <c r="E1369">
-        <v>0.002841906720579121</v>
+        <v>9.59848890092151e-10</v>
       </c>
     </row>
     <row r="1370" spans="1:5">
@@ -23703,7 +23703,7 @@
         <v>2005</v>
       </c>
       <c r="E1370">
-        <v>0.002841910547779507</v>
+        <v>2.127595293501255e-09</v>
       </c>
     </row>
     <row r="1371" spans="1:5">
@@ -23720,7 +23720,7 @@
         <v>2006</v>
       </c>
       <c r="E1371">
-        <v>0.002841918444942466</v>
+        <v>4.716014958674451e-09</v>
       </c>
     </row>
     <row r="1372" spans="1:5">
@@ -23737,7 +23737,7 @@
         <v>2007</v>
       </c>
       <c r="E1372">
-        <v>0.002841934740191122</v>
+        <v>1.045349040690309e-08</v>
       </c>
     </row>
     <row r="1373" spans="1:5">
@@ -23754,7 +23754,7 @@
         <v>2008</v>
       </c>
       <c r="E1373">
-        <v>0.002841968364306848</v>
+        <v>2.317114376334962e-08</v>
       </c>
     </row>
     <row r="1374" spans="1:5">
@@ -23771,7 +23771,7 @@
         <v>2009</v>
       </c>
       <c r="E1374">
-        <v>0.002842037745334155</v>
+        <v>5.136101632427124e-08</v>
       </c>
     </row>
     <row r="1375" spans="1:5">
@@ -23788,7 +23788,7 @@
         <v>2010</v>
       </c>
       <c r="E1375">
-        <v>0.002842180908247562</v>
+        <v>1.138465107963783e-07</v>
       </c>
     </row>
     <row r="1376" spans="1:5">
@@ -23805,7 +23805,7 @@
         <v>2011</v>
       </c>
       <c r="E1376">
-        <v>0.002842476314865969</v>
+        <v>2.52351443575801e-07</v>
       </c>
     </row>
     <row r="1377" spans="1:5">
@@ -23822,7 +23822,7 @@
         <v>2012</v>
       </c>
       <c r="E1377">
-        <v>0.00284308586536458</v>
+        <v>5.593604520677671e-07</v>
       </c>
     </row>
     <row r="1378" spans="1:5">
@@ -23839,7 +23839,7 @@
         <v>2013</v>
       </c>
       <c r="E1378">
-        <v>0.002844343628028996</v>
+        <v>1.239873820238299e-06</v>
       </c>
     </row>
     <row r="1379" spans="1:5">
@@ -23856,7 +23856,7 @@
         <v>2014</v>
       </c>
       <c r="E1379">
-        <v>0.002846938923175456</v>
+        <v>2.74829095664659e-06</v>
       </c>
     </row>
     <row r="1380" spans="1:5">
@@ -23873,7 +23873,7 @@
         <v>2015</v>
       </c>
       <c r="E1380">
-        <v>0.002852294088030768</v>
+        <v>6.091816165344413e-06</v>
       </c>
     </row>
     <row r="1381" spans="1:5">
@@ -23890,7 +23890,7 @@
         <v>2016</v>
       </c>
       <c r="E1381">
-        <v>0.002863343899797712</v>
+        <v>1.350294023869267e-05</v>
       </c>
     </row>
     <row r="1382" spans="1:5">
@@ -23907,7 +23907,7 @@
         <v>2017</v>
       </c>
       <c r="E1382">
-        <v>0.002886143569077836</v>
+        <v>2.992983401080891e-05</v>
       </c>
     </row>
     <row r="1383" spans="1:5">
@@ -23924,7 +23924,7 @@
         <v>2018</v>
       </c>
       <c r="E1383">
-        <v>0.002933185479423821</v>
+        <v>6.633883988271744e-05</v>
       </c>
     </row>
     <row r="1384" spans="1:5">
@@ -23941,7 +23941,7 @@
         <v>2019</v>
       </c>
       <c r="E1384">
-        <v>0.003030237756784645</v>
+        <v>0.0001470293229245064</v>
       </c>
     </row>
     <row r="1385" spans="1:5">
@@ -23958,7 +23958,7 @@
         <v>2020</v>
       </c>
       <c r="E1385">
-        <v>0.003230432663233223</v>
+        <v>0.0003258210569611589</v>
       </c>
     </row>
     <row r="1386" spans="1:5">
@@ -23975,7 +23975,7 @@
         <v>2021</v>
       </c>
       <c r="E1386">
-        <v>0.003643241269098134</v>
+        <v>0.0007218042623730973</v>
       </c>
     </row>
     <row r="1387" spans="1:5">
@@ -23992,7 +23992,7 @@
         <v>2022</v>
       </c>
       <c r="E1387">
-        <v>0.004493854177233255</v>
+        <v>0.001597942396905782</v>
       </c>
     </row>
     <row r="1388" spans="1:5">
@@ -24009,7 +24009,7 @@
         <v>2023</v>
       </c>
       <c r="E1388">
-        <v>0.006243989112878785</v>
+        <v>0.003532179919769113</v>
       </c>
     </row>
     <row r="1389" spans="1:5">
@@ -24026,7 +24026,7 @@
         <v>2024</v>
       </c>
       <c r="E1389">
-        <v>0.009833934184587957</v>
+        <v>0.007781638086091862</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -24043,7 +24043,7 @@
         <v>2025</v>
       </c>
       <c r="E1390">
-        <v>0.01715196124338743</v>
+        <v>0.01701856577640372</v>
       </c>
     </row>
     <row r="1391" spans="1:5">
@@ -24060,7 +24060,7 @@
         <v>2026</v>
       </c>
       <c r="E1391">
-        <v>0.03188165100758483</v>
+        <v>0.03663952113864852</v>
       </c>
     </row>
     <row r="1392" spans="1:5">
@@ -24077,7 +24077,7 @@
         <v>2027</v>
       </c>
       <c r="E1392">
-        <v>0.06078710285626653</v>
+        <v>0.07635284960567058</v>
       </c>
     </row>
     <row r="1393" spans="1:5">
@@ -24094,7 +24094,7 @@
         <v>2028</v>
       </c>
       <c r="E1393">
-        <v>0.1147892007029211</v>
+        <v>0.1494156890324442</v>
       </c>
     </row>
     <row r="1394" spans="1:5">
@@ -24111,7 +24111,7 @@
         <v>2029</v>
       </c>
       <c r="E1394">
-        <v>0.2069953867391137</v>
+        <v>0.2629183481898105</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -24128,7 +24128,7 @@
         <v>2030</v>
       </c>
       <c r="E1395">
-        <v>0.3426269686920505</v>
+        <v>0.400002085197868</v>
       </c>
     </row>
     <row r="1396" spans="1:5">
@@ -24145,7 +24145,7 @@
         <v>2031</v>
       </c>
       <c r="E1396">
-        <v>0.5039769419218469</v>
+        <v>0.5230306749040904</v>
       </c>
     </row>
     <row r="1397" spans="1:5">
@@ -24162,7 +24162,7 @@
         <v>2032</v>
       </c>
       <c r="E1397">
-        <v>0.6537771854552414</v>
+        <v>0.6072980627014853</v>
       </c>
     </row>
     <row r="1398" spans="1:5">
@@ -24179,7 +24179,7 @@
         <v>2033</v>
       </c>
       <c r="E1398">
-        <v>0.7640508273176376</v>
+        <v>0.6548995956450417</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -24196,7 +24196,7 @@
         <v>2034</v>
       </c>
       <c r="E1399">
-        <v>0.8321360055700335</v>
+        <v>0.6789068835401394</v>
       </c>
     </row>
     <row r="1400" spans="1:5">
@@ -24213,7 +24213,7 @@
         <v>2035</v>
       </c>
       <c r="E1400">
-        <v>0.869712211916736</v>
+        <v>0.6903234323824303</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -24230,7 +24230,7 @@
         <v>2036</v>
       </c>
       <c r="E1401">
-        <v>0.8891752916186508</v>
+        <v>0.6956005697749367</v>
       </c>
     </row>
     <row r="1402" spans="1:5">
@@ -24247,7 +24247,7 @@
         <v>2037</v>
       </c>
       <c r="E1402">
-        <v>0.898925549007843</v>
+        <v>0.6980078126780066</v>
       </c>
     </row>
     <row r="1403" spans="1:5">
@@ -24264,7 +24264,7 @@
         <v>2038</v>
       </c>
       <c r="E1403">
-        <v>0.9037284003514848</v>
+        <v>0.699099284904622</v>
       </c>
     </row>
     <row r="1404" spans="1:5">
@@ -24281,7 +24281,7 @@
         <v>2039</v>
       </c>
       <c r="E1404">
-        <v>0.9060745749489765</v>
+        <v>0.6995928126692679</v>
       </c>
     </row>
     <row r="1405" spans="1:5">
@@ -24298,7 +24298,7 @@
         <v>2040</v>
       </c>
       <c r="E1405">
-        <v>0.9072160027943496</v>
+        <v>0.6998156922356266</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -24315,7 +24315,7 @@
         <v>2041</v>
       </c>
       <c r="E1406">
-        <v>0.907770211182682</v>
+        <v>0.6999162891967138</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -24332,7 +24332,7 @@
         <v>2042</v>
       </c>
       <c r="E1407">
-        <v>0.9080390415016597</v>
+        <v>0.6999616822396106</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -24349,7 +24349,7 @@
         <v>2043</v>
       </c>
       <c r="E1408">
-        <v>0.9081693821485454</v>
+        <v>0.699982162902735</v>
       </c>
     </row>
     <row r="1409" spans="1:5">
@@ -24366,7 +24366,7 @@
         <v>2044</v>
       </c>
       <c r="E1409">
-        <v>0.908232562611778</v>
+        <v>0.6999914029948239</v>
       </c>
     </row>
     <row r="1410" spans="1:5">
@@ -24383,7 +24383,7 @@
         <v>2045</v>
       </c>
       <c r="E1410">
-        <v>0.9082631849181925</v>
+        <v>0.6999955716739157</v>
       </c>
     </row>
     <row r="1411" spans="1:5">
@@ -24400,7 +24400,7 @@
         <v>2046</v>
       </c>
       <c r="E1411">
-        <v>0.9082780261449731</v>
+        <v>0.6999974523589241</v>
       </c>
     </row>
     <row r="1412" spans="1:5">
@@ -24417,7 +24417,7 @@
         <v>2047</v>
       </c>
       <c r="E1412">
-        <v>0.9082852188204544</v>
+        <v>0.6999983008193706</v>
       </c>
     </row>
     <row r="1413" spans="1:5">
@@ -24434,7 +24434,7 @@
         <v>2048</v>
       </c>
       <c r="E1413">
-        <v>0.9082887046462907</v>
+        <v>0.6999986835967023</v>
       </c>
     </row>
     <row r="1414" spans="1:5">
@@ -24451,7 +24451,7 @@
         <v>2049</v>
       </c>
       <c r="E1414">
-        <v>0.9082903939909496</v>
+        <v>0.6999988562840026</v>
       </c>
     </row>
     <row r="1415" spans="1:5">
@@ -24468,7 +24468,7 @@
         <v>2050</v>
       </c>
       <c r="E1415">
-        <v>0.9082912126999452</v>
+        <v>0.6999989341906295</v>
       </c>
     </row>
     <row r="1416" spans="1:5">
@@ -29636,7 +29636,7 @@
         <v>1950</v>
       </c>
       <c r="E1719">
-        <v>4.793780098895008e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -29653,7 +29653,7 @@
         <v>1951</v>
       </c>
       <c r="E1720">
-        <v>4.793780127437505e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1721" spans="1:5">
@@ -29670,7 +29670,7 @@
         <v>1952</v>
       </c>
       <c r="E1721">
-        <v>4.793780162311494e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1722" spans="1:5">
@@ -29687,7 +29687,7 @@
         <v>1953</v>
       </c>
       <c r="E1722">
-        <v>4.793780204921468e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1723" spans="1:5">
@@ -29704,7 +29704,7 @@
         <v>1954</v>
       </c>
       <c r="E1723">
-        <v>4.793780256983477e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1724" spans="1:5">
@@ -29721,7 +29721,7 @@
         <v>1955</v>
       </c>
       <c r="E1724">
-        <v>4.793780320594236e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -29738,7 +29738,7 @@
         <v>1956</v>
       </c>
       <c r="E1725">
-        <v>4.793780398315564e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -29755,7 +29755,7 @@
         <v>1957</v>
       </c>
       <c r="E1726">
-        <v>4.793780493277565e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1727" spans="1:5">
@@ -29772,7 +29772,7 @@
         <v>1958</v>
       </c>
       <c r="E1727">
-        <v>4.79378060930468e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1728" spans="1:5">
@@ -29789,7 +29789,7 @@
         <v>1959</v>
       </c>
       <c r="E1728">
-        <v>4.793780751069711e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1729" spans="1:5">
@@ -29806,7 +29806,7 @@
         <v>1960</v>
       </c>
       <c r="E1729">
-        <v>4.793780924282015e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1730" spans="1:5">
@@ -29823,7 +29823,7 @@
         <v>1961</v>
       </c>
       <c r="E1730">
-        <v>4.793781135917434e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1731" spans="1:5">
@@ -29840,7 +29840,7 @@
         <v>1962</v>
       </c>
       <c r="E1731">
-        <v>4.793781394499232e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1732" spans="1:5">
@@ -29857,7 +29857,7 @@
         <v>1963</v>
       </c>
       <c r="E1732">
-        <v>4.793781710441358e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -29874,7 +29874,7 @@
         <v>1964</v>
       </c>
       <c r="E1733">
-        <v>4.793782096467845e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1734" spans="1:5">
@@ -29891,7 +29891,7 @@
         <v>1965</v>
       </c>
       <c r="E1734">
-        <v>4.793782568125246e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1735" spans="1:5">
@@ -29908,7 +29908,7 @@
         <v>1966</v>
       </c>
       <c r="E1735">
-        <v>4.793783144408732e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1736" spans="1:5">
@@ -29925,7 +29925,7 @@
         <v>1967</v>
       </c>
       <c r="E1736">
-        <v>4.793783848527089e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1737" spans="1:5">
@@ -29942,7 +29942,7 @@
         <v>1968</v>
       </c>
       <c r="E1737">
-        <v>4.793784708837382e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1738" spans="1:5">
@@ -29959,7 +29959,7 @@
         <v>1969</v>
       </c>
       <c r="E1738">
-        <v>4.793785759986972e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1739" spans="1:5">
@@ -29976,7 +29976,7 @@
         <v>1970</v>
       </c>
       <c r="E1739">
-        <v>4.793787044308833e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1740" spans="1:5">
@@ -29993,7 +29993,7 @@
         <v>1971</v>
       </c>
       <c r="E1740">
-        <v>4.793788613526375e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1741" spans="1:5">
@@ -30010,7 +30010,7 @@
         <v>1972</v>
       </c>
       <c r="E1741">
-        <v>4.793790530836429e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1742" spans="1:5">
@@ -30027,7 +30027,7 @@
         <v>1973</v>
       </c>
       <c r="E1742">
-        <v>4.793792873454238e-05</v>
+        <v>0.002841903121660881</v>
       </c>
     </row>
     <row r="1743" spans="1:5">
@@ -30044,7 +30044,7 @@
         <v>1974</v>
       </c>
       <c r="E1743">
-        <v>4.793795735722961e-05</v>
+        <v>0.002841903121660882</v>
       </c>
     </row>
     <row r="1744" spans="1:5">
@@ -30061,7 +30061,7 @@
         <v>1975</v>
       </c>
       <c r="E1744">
-        <v>4.79379923291285e-05</v>
+        <v>0.002841903121660883</v>
       </c>
     </row>
     <row r="1745" spans="1:5">
@@ -30078,7 +30078,7 @@
         <v>1976</v>
       </c>
       <c r="E1745">
-        <v>4.793803505863076e-05</v>
+        <v>0.002841903121660886</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -30095,7 +30095,7 @@
         <v>1977</v>
       </c>
       <c r="E1746">
-        <v>4.793808726653052e-05</v>
+        <v>0.002841903121660893</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -30112,7 +30112,7 @@
         <v>1978</v>
       </c>
       <c r="E1747">
-        <v>4.793815105531526e-05</v>
+        <v>0.002841903121660905</v>
       </c>
     </row>
     <row r="1748" spans="1:5">
@@ -30129,7 +30129,7 @@
         <v>1979</v>
       </c>
       <c r="E1748">
-        <v>4.793822899382345e-05</v>
+        <v>0.00284190312166093</v>
       </c>
     </row>
     <row r="1749" spans="1:5">
@@ -30146,7 +30146,7 @@
         <v>1980</v>
       </c>
       <c r="E1749">
-        <v>4.793832422067534e-05</v>
+        <v>0.002841903121660982</v>
       </c>
     </row>
     <row r="1750" spans="1:5">
@@ -30163,7 +30163,7 @@
         <v>1981</v>
       </c>
       <c r="E1750">
-        <v>4.793844057063848e-05</v>
+        <v>0.00284190312166109</v>
       </c>
     </row>
     <row r="1751" spans="1:5">
@@ -30180,7 +30180,7 @@
         <v>1982</v>
       </c>
       <c r="E1751">
-        <v>4.793858272901099e-05</v>
+        <v>0.002841903121661312</v>
       </c>
     </row>
     <row r="1752" spans="1:5">
@@ -30197,7 +30197,7 @@
         <v>1983</v>
       </c>
       <c r="E1752">
-        <v>4.793875642023109e-05</v>
+        <v>0.002841903121661772</v>
       </c>
     </row>
     <row r="1753" spans="1:5">
@@ -30214,7 +30214,7 @@
         <v>1984</v>
       </c>
       <c r="E1753">
-        <v>4.79389686382952e-05</v>
+        <v>0.002841903121662719</v>
       </c>
     </row>
     <row r="1754" spans="1:5">
@@ -30231,7 +30231,7 @@
         <v>1985</v>
       </c>
       <c r="E1754">
-        <v>4.793922792824403e-05</v>
+        <v>0.002841903121664674</v>
       </c>
     </row>
     <row r="1755" spans="1:5">
@@ -30248,7 +30248,7 @@
         <v>1986</v>
       </c>
       <c r="E1755">
-        <v>4.793954473002293e-05</v>
+        <v>0.002841903121668707</v>
       </c>
     </row>
     <row r="1756" spans="1:5">
@@ -30265,7 +30265,7 @@
         <v>1987</v>
       </c>
       <c r="E1756">
-        <v>4.793993179851961e-05</v>
+        <v>0.00284190312167703</v>
       </c>
     </row>
     <row r="1757" spans="1:5">
@@ -30282,7 +30282,7 @@
         <v>1988</v>
       </c>
       <c r="E1757">
-        <v>4.794040471662831e-05</v>
+        <v>0.002841903121694203</v>
       </c>
     </row>
     <row r="1758" spans="1:5">
@@ -30299,7 +30299,7 @@
         <v>1989</v>
       </c>
       <c r="E1758">
-        <v>4.794098252190246e-05</v>
+        <v>0.002841903121729639</v>
       </c>
     </row>
     <row r="1759" spans="1:5">
@@ -30316,7 +30316,7 @@
         <v>1990</v>
       </c>
       <c r="E1759">
-        <v>4.794168847188328e-05</v>
+        <v>0.002841903121802758</v>
       </c>
     </row>
     <row r="1760" spans="1:5">
@@ -30333,7 +30333,7 @@
         <v>1991</v>
       </c>
       <c r="E1760">
-        <v>4.794255097870238e-05</v>
+        <v>0.002841903121953635</v>
       </c>
     </row>
     <row r="1761" spans="1:5">
@@ -30350,7 +30350,7 @@
         <v>1992</v>
       </c>
       <c r="E1761">
-        <v>4.79436047502635e-05</v>
+        <v>0.002841903122264959</v>
       </c>
     </row>
     <row r="1762" spans="1:5">
@@ -30367,7 +30367,7 @@
         <v>1993</v>
       </c>
       <c r="E1762">
-        <v>4.794489218346353e-05</v>
+        <v>0.002841903122907354</v>
       </c>
     </row>
     <row r="1763" spans="1:5">
@@ -30384,7 +30384,7 @@
         <v>1994</v>
       </c>
       <c r="E1763">
-        <v>4.79464650648178e-05</v>
+        <v>0.002841903124232892</v>
       </c>
     </row>
     <row r="1764" spans="1:5">
@@ -30401,7 +30401,7 @@
         <v>1995</v>
       </c>
       <c r="E1764">
-        <v>4.794838664586807e-05</v>
+        <v>0.002841903126968049</v>
       </c>
     </row>
     <row r="1765" spans="1:5">
@@ -30418,7 +30418,7 @@
         <v>1996</v>
       </c>
       <c r="E1765">
-        <v>4.79507341752997e-05</v>
+        <v>0.002841903132611855</v>
       </c>
     </row>
     <row r="1766" spans="1:5">
@@ -30435,7 +30435,7 @@
         <v>1997</v>
       </c>
       <c r="E1766">
-        <v>4.795360198727237e-05</v>
+        <v>0.002841903144257458</v>
       </c>
     </row>
     <row r="1767" spans="1:5">
@@ -30452,7 +30452,7 @@
         <v>1998</v>
       </c>
       <c r="E1767">
-        <v>4.795710526665549e-05</v>
+        <v>0.002841903168287353</v>
       </c>
     </row>
     <row r="1768" spans="1:5">
@@ -30469,7 +30469,7 @@
         <v>1999</v>
       </c>
       <c r="E1768">
-        <v>4.796138463731134e-05</v>
+        <v>0.002841903217871379</v>
       </c>
     </row>
     <row r="1769" spans="1:5">
@@ -30486,7 +30486,7 @@
         <v>2000</v>
       </c>
       <c r="E1769">
-        <v>4.79666117500213e-05</v>
+        <v>0.002841903320184584</v>
       </c>
     </row>
     <row r="1770" spans="1:5">
@@ -30503,7 +30503,7 @@
         <v>2001</v>
       </c>
       <c r="E1770">
-        <v>4.797299608289892e-05</v>
+        <v>0.002841903531300799</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -30520,7 +30520,7 @@
         <v>2002</v>
       </c>
       <c r="E1771">
-        <v>4.798079320999734e-05</v>
+        <v>0.002841903966924495</v>
       </c>
     </row>
     <row r="1772" spans="1:5">
@@ -30537,7 +30537,7 @@
         <v>2003</v>
       </c>
       <c r="E1772">
-        <v>4.799031484407944e-05</v>
+        <v>0.002841904865803834</v>
       </c>
     </row>
     <row r="1773" spans="1:5">
@@ -30554,7 +30554,7 @@
         <v>2004</v>
       </c>
       <c r="E1773">
-        <v>4.800194101780004e-05</v>
+        <v>0.002841906720579121</v>
       </c>
     </row>
     <row r="1774" spans="1:5">
@@ -30571,7 +30571,7 @@
         <v>2005</v>
       </c>
       <c r="E1774">
-        <v>4.801613483413649e-05</v>
+        <v>0.002841910547779507</v>
       </c>
     </row>
     <row r="1775" spans="1:5">
@@ -30588,7 +30588,7 @@
         <v>2006</v>
       </c>
       <c r="E1775">
-        <v>4.803346029144486e-05</v>
+        <v>0.002841918444942466</v>
       </c>
     </row>
     <row r="1776" spans="1:5">
@@ -30605,7 +30605,7 @@
         <v>2007</v>
       </c>
       <c r="E1776">
-        <v>4.805460376957153e-05</v>
+        <v>0.002841934740191122</v>
       </c>
     </row>
     <row r="1777" spans="1:5">
@@ -30622,7 +30622,7 @@
         <v>2008</v>
       </c>
       <c r="E1777">
-        <v>4.808039984779504e-05</v>
+        <v>0.002841968364306848</v>
       </c>
     </row>
     <row r="1778" spans="1:5">
@@ -30639,7 +30639,7 @@
         <v>2009</v>
       </c>
       <c r="E1778">
-        <v>4.811186220700072e-05</v>
+        <v>0.002842037745334155</v>
       </c>
     </row>
     <row r="1779" spans="1:5">
@@ -30656,7 +30656,7 @@
         <v>2010</v>
       </c>
       <c r="E1779">
-        <v>4.815022043713165e-05</v>
+        <v>0.002842180908247562</v>
       </c>
     </row>
     <row r="1780" spans="1:5">
@@ -30673,7 +30673,7 @@
         <v>2011</v>
       </c>
       <c r="E1780">
-        <v>4.819696361001259e-05</v>
+        <v>0.002842476314865969</v>
       </c>
     </row>
     <row r="1781" spans="1:5">
@@ -30690,7 +30690,7 @@
         <v>2012</v>
       </c>
       <c r="E1781">
-        <v>4.825389146131627e-05</v>
+        <v>0.00284308586536458</v>
       </c>
     </row>
     <row r="1782" spans="1:5">
@@ -30707,7 +30707,7 @@
         <v>2013</v>
       </c>
       <c r="E1782">
-        <v>4.832317391496173e-05</v>
+        <v>0.002844343628028996</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -30724,7 +30724,7 @@
         <v>2014</v>
       </c>
       <c r="E1783">
-        <v>4.840741942204335e-05</v>
+        <v>0.002846938923175456</v>
       </c>
     </row>
     <row r="1784" spans="1:5">
@@ -30741,7 +30741,7 @@
         <v>2015</v>
       </c>
       <c r="E1784">
-        <v>4.85097520945177e-05</v>
+        <v>0.002852294088030768</v>
       </c>
     </row>
     <row r="1785" spans="1:5">
@@ -30758,7 +30758,7 @@
         <v>2016</v>
       </c>
       <c r="E1785">
-        <v>4.863389678214654e-05</v>
+        <v>0.002863343899797712</v>
       </c>
     </row>
     <row r="1786" spans="1:5">
@@ -30775,7 +30775,7 @@
         <v>2017</v>
       </c>
       <c r="E1786">
-        <v>4.878426992695315e-05</v>
+        <v>0.002886143569077836</v>
       </c>
     </row>
     <row r="1787" spans="1:5">
@@ -30792,7 +30792,7 @@
         <v>2018</v>
       </c>
       <c r="E1787">
-        <v>4.896607205711097e-05</v>
+        <v>0.002933185479423821</v>
       </c>
     </row>
     <row r="1788" spans="1:5">
@@ -30809,7 +30809,7 @@
         <v>2019</v>
       </c>
       <c r="E1788">
-        <v>4.918537495464627e-05</v>
+        <v>0.003030237756784645</v>
       </c>
     </row>
     <row r="1789" spans="1:5">
@@ -30826,7 +30826,7 @@
         <v>2020</v>
       </c>
       <c r="E1789">
-        <v>4.944919266199444e-05</v>
+        <v>0.003230432663233223</v>
       </c>
     </row>
     <row r="1790" spans="1:5">
@@ -30843,7 +30843,7 @@
         <v>2021</v>
       </c>
       <c r="E1790">
-        <v>4.976552047212026e-05</v>
+        <v>0.003643241269098134</v>
       </c>
     </row>
     <row r="1791" spans="1:5">
@@ -30860,7 +30860,7 @@
         <v>2022</v>
       </c>
       <c r="E1791">
-        <v>5.014331996345081e-05</v>
+        <v>0.004493854177233255</v>
       </c>
     </row>
     <row r="1792" spans="1:5">
@@ -30877,7 +30877,7 @@
         <v>2023</v>
       </c>
       <c r="E1792">
-        <v>5.059242146772163e-05</v>
+        <v>0.006243989112878785</v>
       </c>
     </row>
     <row r="1793" spans="1:5">
@@ -30894,7 +30894,7 @@
         <v>2024</v>
       </c>
       <c r="E1793">
-        <v>5.112330921394945e-05</v>
+        <v>0.009833934184587957</v>
       </c>
     </row>
     <row r="1794" spans="1:5">
@@ -30911,7 +30911,7 @@
         <v>2025</v>
       </c>
       <c r="E1794">
-        <v>5.174675082786137e-05</v>
+        <v>0.01715196124338743</v>
       </c>
     </row>
     <row r="1795" spans="1:5">
@@ -30928,7 +30928,7 @@
         <v>2026</v>
       </c>
       <c r="E1795">
-        <v>5.247323507433466e-05</v>
+        <v>0.03188165100758483</v>
       </c>
     </row>
     <row r="1796" spans="1:5">
@@ -30945,7 +30945,7 @@
         <v>2027</v>
       </c>
       <c r="E1796">
-        <v>5.331219392015322e-05</v>
+        <v>0.06078710285626653</v>
       </c>
     </row>
     <row r="1797" spans="1:5">
@@ -30962,7 +30962,7 @@
         <v>2028</v>
       </c>
       <c r="E1797">
-        <v>5.427101159295769e-05</v>
+        <v>0.1147892007029211</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -30979,7 +30979,7 @@
         <v>2029</v>
       </c>
       <c r="E1798">
-        <v>5.535386711939443e-05</v>
+        <v>0.2069953867391137</v>
       </c>
     </row>
     <row r="1799" spans="1:5">
@@ -30996,7 +30996,7 @@
         <v>2030</v>
       </c>
       <c r="E1799">
-        <v>5.656051606105581e-05</v>
+        <v>0.3426269686920505</v>
       </c>
     </row>
     <row r="1800" spans="1:5">
@@ -31013,7 +31013,7 @@
         <v>2031</v>
       </c>
       <c r="E1800">
-        <v>5.788518215420933e-05</v>
+        <v>0.5039769419218469</v>
       </c>
     </row>
     <row r="1801" spans="1:5">
@@ -31030,7 +31030,7 @@
         <v>2032</v>
       </c>
       <c r="E1801">
-        <v>5.931578100757381e-05</v>
+        <v>0.6537771854552414</v>
       </c>
     </row>
     <row r="1802" spans="1:5">
@@ -31047,7 +31047,7 @@
         <v>2033</v>
       </c>
       <c r="E1802">
-        <v>6.083370976798873e-05</v>
+        <v>0.7640508273176376</v>
       </c>
     </row>
     <row r="1803" spans="1:5">
@@ -31064,7 +31064,7 @@
         <v>2034</v>
       </c>
       <c r="E1803">
-        <v>6.241438498466667e-05</v>
+        <v>0.8321360055700335</v>
       </c>
     </row>
     <row r="1804" spans="1:5">
@@ -31081,7 +31081,7 @@
         <v>2035</v>
       </c>
       <c r="E1804">
-        <v>6.402858862856247e-05</v>
+        <v>0.869712211916736</v>
       </c>
     </row>
     <row r="1805" spans="1:5">
@@ -31098,7 +31098,7 @@
         <v>2036</v>
       </c>
       <c r="E1805">
-        <v>6.564451075473692e-05</v>
+        <v>0.8891752916186508</v>
       </c>
     </row>
     <row r="1806" spans="1:5">
@@ -31115,7 +31115,7 @@
         <v>2037</v>
       </c>
       <c r="E1806">
-        <v>6.723020640735165e-05</v>
+        <v>0.898925549007843</v>
       </c>
     </row>
     <row r="1807" spans="1:5">
@@ -31132,7 +31132,7 @@
         <v>2038</v>
       </c>
       <c r="E1807">
-        <v>6.875607456661976e-05</v>
+        <v>0.9037284003514848</v>
       </c>
     </row>
     <row r="1808" spans="1:5">
@@ -31149,7 +31149,7 @@
         <v>2039</v>
       </c>
       <c r="E1808">
-        <v>7.019696094028484e-05</v>
+        <v>0.9060745749489765</v>
       </c>
     </row>
     <row r="1809" spans="1:5">
@@ -31166,7 +31166,7 @@
         <v>2040</v>
       </c>
       <c r="E1809">
-        <v>7.153358661373463e-05</v>
+        <v>0.9072160027943496</v>
       </c>
     </row>
     <row r="1810" spans="1:5">
@@ -31183,7 +31183,7 @@
         <v>2041</v>
       </c>
       <c r="E1810">
-        <v>7.275317177489621e-05</v>
+        <v>0.907770211182682</v>
       </c>
     </row>
     <row r="1811" spans="1:5">
@@ -31200,7 +31200,7 @@
         <v>2042</v>
       </c>
       <c r="E1811">
-        <v>7.384929789708519e-05</v>
+        <v>0.9080390415016597</v>
       </c>
     </row>
     <row r="1812" spans="1:5">
@@ -31217,7 +31217,7 @@
         <v>2043</v>
       </c>
       <c r="E1812">
-        <v>7.482118084642024e-05</v>
+        <v>0.9081693821485454</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -31234,7 +31234,7 @@
         <v>2044</v>
       </c>
       <c r="E1813">
-        <v>7.56725866569618e-05</v>
+        <v>0.908232562611778</v>
       </c>
     </row>
     <row r="1814" spans="1:5">
@@ -31251,7 +31251,7 @@
         <v>2045</v>
       </c>
       <c r="E1814">
-        <v>7.64106157461325e-05</v>
+        <v>0.9082631849181925</v>
       </c>
     </row>
     <row r="1815" spans="1:5">
@@ -31268,7 +31268,7 @@
         <v>2046</v>
       </c>
       <c r="E1815">
-        <v>7.704453281595432e-05</v>
+        <v>0.9082780261449731</v>
       </c>
     </row>
     <row r="1816" spans="1:5">
@@ -31285,7 +31285,7 @@
         <v>2047</v>
       </c>
       <c r="E1816">
-        <v>7.758475505754102e-05</v>
+        <v>0.9082852188204544</v>
       </c>
     </row>
     <row r="1817" spans="1:5">
@@ -31302,7 +31302,7 @@
         <v>2048</v>
       </c>
       <c r="E1817">
-        <v>7.80420508039823e-05</v>
+        <v>0.9082887046462907</v>
       </c>
     </row>
     <row r="1818" spans="1:5">
@@ -31319,7 +31319,7 @@
         <v>2049</v>
       </c>
       <c r="E1818">
-        <v>7.842695513136502e-05</v>
+        <v>0.9082903939909496</v>
       </c>
     </row>
     <row r="1819" spans="1:5">
@@ -31336,7 +31336,7 @@
         <v>2050</v>
       </c>
       <c r="E1819">
-        <v>7.874938055892286e-05</v>
+        <v>0.9082912126999452</v>
       </c>
     </row>
     <row r="1820" spans="1:5">

--- a/data/scenario_data/V2G_ratio.xlsx
+++ b/data/scenario_data/V2G_ratio.xlsx
@@ -2164,7 +2164,7 @@
         <v>1950</v>
       </c>
       <c r="E103">
-        <v>4.793780098895008e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2181,7 +2181,7 @@
         <v>1951</v>
       </c>
       <c r="E104">
-        <v>4.793780127437505e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2198,7 +2198,7 @@
         <v>1952</v>
       </c>
       <c r="E105">
-        <v>4.793780162311494e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2215,7 +2215,7 @@
         <v>1953</v>
       </c>
       <c r="E106">
-        <v>4.793780204921468e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2232,7 +2232,7 @@
         <v>1954</v>
       </c>
       <c r="E107">
-        <v>4.793780256983477e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2249,7 +2249,7 @@
         <v>1955</v>
       </c>
       <c r="E108">
-        <v>4.793780320594236e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2266,7 +2266,7 @@
         <v>1956</v>
       </c>
       <c r="E109">
-        <v>4.793780398315564e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2283,7 +2283,7 @@
         <v>1957</v>
       </c>
       <c r="E110">
-        <v>4.793780493277565e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2300,7 +2300,7 @@
         <v>1958</v>
       </c>
       <c r="E111">
-        <v>4.79378060930468e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2317,7 +2317,7 @@
         <v>1959</v>
       </c>
       <c r="E112">
-        <v>4.793780751069711e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2334,7 +2334,7 @@
         <v>1960</v>
       </c>
       <c r="E113">
-        <v>4.793780924282015e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2351,7 +2351,7 @@
         <v>1961</v>
       </c>
       <c r="E114">
-        <v>4.793781135917434e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2368,7 +2368,7 @@
         <v>1962</v>
       </c>
       <c r="E115">
-        <v>4.793781394499232e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2385,7 +2385,7 @@
         <v>1963</v>
       </c>
       <c r="E116">
-        <v>4.793781710441358e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2402,7 +2402,7 @@
         <v>1964</v>
       </c>
       <c r="E117">
-        <v>4.793782096467845e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2419,7 +2419,7 @@
         <v>1965</v>
       </c>
       <c r="E118">
-        <v>4.793782568125246e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2436,7 +2436,7 @@
         <v>1966</v>
       </c>
       <c r="E119">
-        <v>4.793783144408732e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2453,7 +2453,7 @@
         <v>1967</v>
       </c>
       <c r="E120">
-        <v>4.793783848527089e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2470,7 +2470,7 @@
         <v>1968</v>
       </c>
       <c r="E121">
-        <v>4.793784708837382e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2487,7 +2487,7 @@
         <v>1969</v>
       </c>
       <c r="E122">
-        <v>4.793785759986972e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2504,7 +2504,7 @@
         <v>1970</v>
       </c>
       <c r="E123">
-        <v>4.793787044308833e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2521,7 +2521,7 @@
         <v>1971</v>
       </c>
       <c r="E124">
-        <v>4.793788613526375e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2538,7 +2538,7 @@
         <v>1972</v>
       </c>
       <c r="E125">
-        <v>4.793790530836429e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2555,7 +2555,7 @@
         <v>1973</v>
       </c>
       <c r="E126">
-        <v>4.793792873454238e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>1974</v>
       </c>
       <c r="E127">
-        <v>4.793795735722961e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2589,7 +2589,7 @@
         <v>1975</v>
       </c>
       <c r="E128">
-        <v>4.79379923291285e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2606,7 +2606,7 @@
         <v>1976</v>
       </c>
       <c r="E129">
-        <v>4.793803505863076e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2623,7 +2623,7 @@
         <v>1977</v>
       </c>
       <c r="E130">
-        <v>4.793808726653052e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2640,7 +2640,7 @@
         <v>1978</v>
       </c>
       <c r="E131">
-        <v>4.793815105531526e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2657,7 +2657,7 @@
         <v>1979</v>
       </c>
       <c r="E132">
-        <v>4.793822899382345e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2674,7 +2674,7 @@
         <v>1980</v>
       </c>
       <c r="E133">
-        <v>4.793832422067534e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2691,7 +2691,7 @@
         <v>1981</v>
       </c>
       <c r="E134">
-        <v>4.793844057063848e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2708,7 +2708,7 @@
         <v>1982</v>
       </c>
       <c r="E135">
-        <v>4.793858272901099e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2725,7 +2725,7 @@
         <v>1983</v>
       </c>
       <c r="E136">
-        <v>4.793875642023109e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2742,7 +2742,7 @@
         <v>1984</v>
       </c>
       <c r="E137">
-        <v>4.79389686382952e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2759,7 +2759,7 @@
         <v>1985</v>
       </c>
       <c r="E138">
-        <v>4.793922792824403e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2776,7 +2776,7 @@
         <v>1986</v>
       </c>
       <c r="E139">
-        <v>4.793954473002293e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2793,7 +2793,7 @@
         <v>1987</v>
       </c>
       <c r="E140">
-        <v>4.793993179851961e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2810,7 +2810,7 @@
         <v>1988</v>
       </c>
       <c r="E141">
-        <v>4.794040471662831e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2827,7 +2827,7 @@
         <v>1989</v>
       </c>
       <c r="E142">
-        <v>4.794098252190246e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2844,7 +2844,7 @@
         <v>1990</v>
       </c>
       <c r="E143">
-        <v>4.794168847188328e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2861,7 +2861,7 @@
         <v>1991</v>
       </c>
       <c r="E144">
-        <v>4.794255097870238e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2878,7 +2878,7 @@
         <v>1992</v>
       </c>
       <c r="E145">
-        <v>4.79436047502635e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2895,7 +2895,7 @@
         <v>1993</v>
       </c>
       <c r="E146">
-        <v>4.794489218346353e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2912,7 +2912,7 @@
         <v>1994</v>
       </c>
       <c r="E147">
-        <v>4.79464650648178e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2929,7 +2929,7 @@
         <v>1995</v>
       </c>
       <c r="E148">
-        <v>4.794838664586807e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2946,7 +2946,7 @@
         <v>1996</v>
       </c>
       <c r="E149">
-        <v>4.79507341752997e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2963,7 +2963,7 @@
         <v>1997</v>
       </c>
       <c r="E150">
-        <v>4.795360198727237e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2980,7 +2980,7 @@
         <v>1998</v>
       </c>
       <c r="E151">
-        <v>4.795710526665549e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2997,7 +2997,7 @@
         <v>1999</v>
       </c>
       <c r="E152">
-        <v>4.796138463731134e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3014,7 +3014,7 @@
         <v>2000</v>
       </c>
       <c r="E153">
-        <v>4.79666117500213e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3031,7 +3031,7 @@
         <v>2001</v>
       </c>
       <c r="E154">
-        <v>4.797299608289892e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3048,7 +3048,7 @@
         <v>2002</v>
       </c>
       <c r="E155">
-        <v>4.798079320999734e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3065,7 +3065,7 @@
         <v>2003</v>
       </c>
       <c r="E156">
-        <v>4.799031484407944e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3082,7 +3082,7 @@
         <v>2004</v>
       </c>
       <c r="E157">
-        <v>4.800194101780004e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3099,7 +3099,7 @@
         <v>2005</v>
       </c>
       <c r="E158">
-        <v>4.801613483413649e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3116,7 +3116,7 @@
         <v>2006</v>
       </c>
       <c r="E159">
-        <v>4.803346029144486e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3133,7 +3133,7 @@
         <v>2007</v>
       </c>
       <c r="E160">
-        <v>4.805460376957153e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3150,7 +3150,7 @@
         <v>2008</v>
       </c>
       <c r="E161">
-        <v>4.808039984779504e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3167,7 +3167,7 @@
         <v>2009</v>
       </c>
       <c r="E162">
-        <v>4.811186220700072e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3184,7 +3184,7 @@
         <v>2010</v>
       </c>
       <c r="E163">
-        <v>4.815022043713165e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3201,7 +3201,7 @@
         <v>2011</v>
       </c>
       <c r="E164">
-        <v>4.819696361001259e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3218,7 +3218,7 @@
         <v>2012</v>
       </c>
       <c r="E165">
-        <v>4.825389146131627e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3235,7 +3235,7 @@
         <v>2013</v>
       </c>
       <c r="E166">
-        <v>4.832317391496173e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3252,7 +3252,7 @@
         <v>2014</v>
       </c>
       <c r="E167">
-        <v>4.840741942204335e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3269,7 +3269,7 @@
         <v>2015</v>
       </c>
       <c r="E168">
-        <v>4.85097520945177e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3286,7 +3286,7 @@
         <v>2016</v>
       </c>
       <c r="E169">
-        <v>4.863389678214654e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3303,7 +3303,7 @@
         <v>2017</v>
       </c>
       <c r="E170">
-        <v>4.878426992695315e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3320,7 +3320,7 @@
         <v>2018</v>
       </c>
       <c r="E171">
-        <v>4.896607205711097e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3337,7 +3337,7 @@
         <v>2019</v>
       </c>
       <c r="E172">
-        <v>4.918537495464627e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3354,7 +3354,7 @@
         <v>2020</v>
       </c>
       <c r="E173">
-        <v>4.944919266199444e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3371,7 +3371,7 @@
         <v>2021</v>
       </c>
       <c r="E174">
-        <v>4.976552047212026e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3388,7 +3388,7 @@
         <v>2022</v>
       </c>
       <c r="E175">
-        <v>5.014331996345081e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3405,7 +3405,7 @@
         <v>2023</v>
       </c>
       <c r="E176">
-        <v>5.059242146772163e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3422,7 +3422,7 @@
         <v>2024</v>
       </c>
       <c r="E177">
-        <v>5.112330921394945e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3439,7 +3439,7 @@
         <v>2025</v>
       </c>
       <c r="E178">
-        <v>5.174675082786137e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3456,7 +3456,7 @@
         <v>2026</v>
       </c>
       <c r="E179">
-        <v>5.247323507433466e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3473,7 +3473,7 @@
         <v>2027</v>
       </c>
       <c r="E180">
-        <v>5.331219392015322e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3490,7 +3490,7 @@
         <v>2028</v>
       </c>
       <c r="E181">
-        <v>5.427101159295769e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3507,7 +3507,7 @@
         <v>2029</v>
       </c>
       <c r="E182">
-        <v>5.535386711939443e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3524,7 +3524,7 @@
         <v>2030</v>
       </c>
       <c r="E183">
-        <v>5.656051606105581e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3541,7 +3541,7 @@
         <v>2031</v>
       </c>
       <c r="E184">
-        <v>5.788518215420933e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3558,7 +3558,7 @@
         <v>2032</v>
       </c>
       <c r="E185">
-        <v>5.931578100757381e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3575,7 +3575,7 @@
         <v>2033</v>
       </c>
       <c r="E186">
-        <v>6.083370976798873e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3592,7 +3592,7 @@
         <v>2034</v>
       </c>
       <c r="E187">
-        <v>6.241438498466667e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3609,7 +3609,7 @@
         <v>2035</v>
       </c>
       <c r="E188">
-        <v>6.402858862856247e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3626,7 +3626,7 @@
         <v>2036</v>
       </c>
       <c r="E189">
-        <v>6.564451075473692e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3643,7 +3643,7 @@
         <v>2037</v>
       </c>
       <c r="E190">
-        <v>6.723020640735165e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3660,7 +3660,7 @@
         <v>2038</v>
       </c>
       <c r="E191">
-        <v>6.875607456661976e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3677,7 +3677,7 @@
         <v>2039</v>
       </c>
       <c r="E192">
-        <v>7.019696094028484e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3694,7 +3694,7 @@
         <v>2040</v>
       </c>
       <c r="E193">
-        <v>7.153358661373463e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3711,7 +3711,7 @@
         <v>2041</v>
       </c>
       <c r="E194">
-        <v>7.275317177489621e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3728,7 +3728,7 @@
         <v>2042</v>
       </c>
       <c r="E195">
-        <v>7.384929789708519e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3745,7 +3745,7 @@
         <v>2043</v>
       </c>
       <c r="E196">
-        <v>7.482118084642024e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3762,7 +3762,7 @@
         <v>2044</v>
       </c>
       <c r="E197">
-        <v>7.56725866569618e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3779,7 +3779,7 @@
         <v>2045</v>
       </c>
       <c r="E198">
-        <v>7.64106157461325e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3796,7 +3796,7 @@
         <v>2046</v>
       </c>
       <c r="E199">
-        <v>7.704453281595432e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3813,7 +3813,7 @@
         <v>2047</v>
       </c>
       <c r="E200">
-        <v>7.758475505754102e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3830,7 +3830,7 @@
         <v>2048</v>
       </c>
       <c r="E201">
-        <v>7.80420508039823e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3847,7 +3847,7 @@
         <v>2049</v>
       </c>
       <c r="E202">
-        <v>7.842695513136502e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3864,7 +3864,7 @@
         <v>2050</v>
       </c>
       <c r="E203">
-        <v>7.874938055892286e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:5">
